--- a/data/hotels_by_city/Dallas/Dallas_shard_719.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_719.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
   <si>
     <t>STR#</t>
   </si>
@@ -148,6 +148,438 @@
   </si>
   <si>
     <t>response_text</t>
+  </si>
+  <si>
+    <t>06/15/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r434504468-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>56882</t>
+  </si>
+  <si>
+    <t>98843</t>
+  </si>
+  <si>
+    <t>434504468</t>
+  </si>
+  <si>
+    <t>11/04/2016</t>
+  </si>
+  <si>
+    <t>Not bad for the money</t>
+  </si>
+  <si>
+    <t>I can't believe how mean the reviews are about this place. For the price, this place is great. It's clean and has a good tv and internet. Kitchenette is great too. Great value for four days... glad I didn't believe the terrible reviews. I did not see any bugs as other reviews said. If you aren't expecting a 5 star hotel this place is fine.</t>
+  </si>
+  <si>
+    <t>November 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled as a couple</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r344650979-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>344650979</t>
+  </si>
+  <si>
+    <t>02/02/2016</t>
+  </si>
+  <si>
+    <t>Keep Driving</t>
+  </si>
+  <si>
+    <t>This is the most disgusting place I have ever stayed at!  Believe the reviews and keep driving or stay in your vehicle for the night.  This place was absolutely filthy.  There was garbage all over the outside walk ways and was piled up by the elevator.  The metal piece on the window was broken and anyone could have entered the room during the night.  I was literally scared to go to sleep.  Lifted the sheets to reveal a dirty mattress.  I slept in my clothes on top of the spread, no word of a lie!  Would never stay at another Studio 6 chain again.</t>
+  </si>
+  <si>
+    <t>January 2016</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r304595167-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>304595167</t>
+  </si>
+  <si>
+    <t>08/29/2015</t>
+  </si>
+  <si>
+    <t>Roaches!!  Stay away</t>
+  </si>
+  <si>
+    <t>I stayed at this Studio 6 for 10 days ending July 11, 2015.  It was an extended business trip, fully paid before I arrived.  This is the worst hotel I have ever been in and I have stayed at budget hotels all over the country.  The sheets were stained and thin, the towels were not clean ( I used my own).  The carpet was unbearably nasty  (Keep your shoes on), but the worst part was the roaches.  Don't bring your stuff inside if you have to be at this facility.  Roaches overran the traps I purchased and set out.  If I was still in Fort Worth, I believe I would have to call the health department.  Oh, and the water was shut off for two days due to a water line break.  Please stay away from this place!MoreShow less</t>
+  </si>
+  <si>
+    <t>July 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>I stayed at this Studio 6 for 10 days ending July 11, 2015.  It was an extended business trip, fully paid before I arrived.  This is the worst hotel I have ever been in and I have stayed at budget hotels all over the country.  The sheets were stained and thin, the towels were not clean ( I used my own).  The carpet was unbearably nasty  (Keep your shoes on), but the worst part was the roaches.  Don't bring your stuff inside if you have to be at this facility.  Roaches overran the traps I purchased and set out.  If I was still in Fort Worth, I believe I would have to call the health department.  Oh, and the water was shut off for two days due to a water line break.  Please stay away from this place!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r234497869-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>234497869</t>
+  </si>
+  <si>
+    <t>10/15/2014</t>
+  </si>
+  <si>
+    <t>Not horrible but use as a last resort</t>
+  </si>
+  <si>
+    <t>My family and I are passing through on our way to El Paso. We just needed a place to rest up before we drive on. This is definitely all this place is good for. If you don't want to pay major hotel prices for just a few hours or just one night this motel has good value without wasting major $$. I would NEVER stay here more than a night or less. I know this is an "extended stay" motel, but I have no idea how anyone could stay here more than 24 hours. It's good for those just needing a shower and some sleep, but that's it!!</t>
+  </si>
+  <si>
+    <t>October 2014</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r233186399-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>233186399</t>
+  </si>
+  <si>
+    <t>10/07/2014</t>
+  </si>
+  <si>
+    <t>Cringeworthy</t>
+  </si>
+  <si>
+    <t>Had stayed at this hotel 10-15 years ago when it was a new-ish La Quinta, and it was clean and perfectly fine for a short weekend visit. On this trip, it was a fallback after TWO "guaranteed" online bookings (one on bookings.com and the other on Travelocity -- argh) were denied at oversold 3-star properties over a local football game weekend. A clerk at the second oversold hotel (a nearby Fairfield Inn and Suites) graciously called around and found availability at this place for my 80-ish parents, and I joined there on the second night prior to a family funeral. It was awful, even having had appropriate expectations for a 2-star budget stay. Without painful elaboration, I'll just say that it was in disrepair, was dirty, and appears to be an "extended stay" for people who are experiencing unfortunate economic circumstances. If I had arrived there as a woman staying alone, I would not have set foot in the place. At the very least, the owners of this property need to make proper repairs, clean it thoroughly, and invest in new sheets and towels.MoreShow less</t>
+  </si>
+  <si>
+    <t>Had stayed at this hotel 10-15 years ago when it was a new-ish La Quinta, and it was clean and perfectly fine for a short weekend visit. On this trip, it was a fallback after TWO "guaranteed" online bookings (one on bookings.com and the other on Travelocity -- argh) were denied at oversold 3-star properties over a local football game weekend. A clerk at the second oversold hotel (a nearby Fairfield Inn and Suites) graciously called around and found availability at this place for my 80-ish parents, and I joined there on the second night prior to a family funeral. It was awful, even having had appropriate expectations for a 2-star budget stay. Without painful elaboration, I'll just say that it was in disrepair, was dirty, and appears to be an "extended stay" for people who are experiencing unfortunate economic circumstances. If I had arrived there as a woman staying alone, I would not have set foot in the place. At the very least, the owners of this property need to make proper repairs, clean it thoroughly, and invest in new sheets and towels.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r169743587-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>169743587</t>
+  </si>
+  <si>
+    <t>07/29/2013</t>
+  </si>
+  <si>
+    <t>Best LaQuinta in the States!</t>
+  </si>
+  <si>
+    <t>Excellent staffOutstanding breakfast both fresh and plenty to eat &amp; extended timeframe for a guest that was but a few minutes late for meal.Bed was comfortableLinens were clean &amp; towels were soft and freshPlenty TV station channels with large screen TVExcellent Maid serviceTook care of my handicap needs with class!</t>
+  </si>
+  <si>
+    <t>June 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r162791333-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>162791333</t>
+  </si>
+  <si>
+    <t>06/02/2013</t>
+  </si>
+  <si>
+    <t>Great place to stay!</t>
+  </si>
+  <si>
+    <t>This is my 3rd visit to Ft Worth as well as my 3rd stay at this hotel! Very friendly staff! Great waffle breakfasts! Fully stocked breakfast area and nice clean rooms for the money! If your in the area and need a nice quiet place to stay that's clean this is your place! I will be back!</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r162255147-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>162255147</t>
+  </si>
+  <si>
+    <t>05/29/2013</t>
+  </si>
+  <si>
+    <t>A frightening experience</t>
+  </si>
+  <si>
+    <t>You get what you pay for, I guess. Do you need to have the pass swipes using your hotel key to work so you can go into the lobby at 0300 to work?  They don't. Probably too dangerous a location to enable that feature. Do you need a modicum of a "business center" so you can print boarding passes. Nope. Not on the bare bones La Quinta experience. Do you want to have the desk guy print out a receipt to see what you might have been charged? Nope "you'll have to get it from Expedia where you booked it". Really? I mean, really?  Like another reviewer said - the is either the oldest La Quinta on the planet or a reclamation project from another chain. Either way, I would not stay here again if the room was free.MoreShow less</t>
+  </si>
+  <si>
+    <t>You get what you pay for, I guess. Do you need to have the pass swipes using your hotel key to work so you can go into the lobby at 0300 to work?  They don't. Probably too dangerous a location to enable that feature. Do you need a modicum of a "business center" so you can print boarding passes. Nope. Not on the bare bones La Quinta experience. Do you want to have the desk guy print out a receipt to see what you might have been charged? Nope "you'll have to get it from Expedia where you booked it". Really? I mean, really?  Like another reviewer said - the is either the oldest La Quinta on the planet or a reclamation project from another chain. Either way, I would not stay here again if the room was free.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r158758779-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>158758779</t>
+  </si>
+  <si>
+    <t>04/25/2013</t>
+  </si>
+  <si>
+    <t>A Pleasant Experience</t>
+  </si>
+  <si>
+    <t>I had read some doubtful reviews of this hotel but I was pleasantly surprised when I arrived. It provided comfort,cleanliness,convenience, and a good price point. On this trip I didn't need a gym- I needed a comfortable place to sleep. Thank you Bob</t>
+  </si>
+  <si>
+    <t>April 2013</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r155700147-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>155700147</t>
+  </si>
+  <si>
+    <t>03/26/2013</t>
+  </si>
+  <si>
+    <t>Not exactly what you expect</t>
+  </si>
+  <si>
+    <t>I booked this La Quinta based on price and reviews from other writers.  The staff at check-in and out was great.  Quality of breakfast was good.  Location was convenient to highway and an I-Hop (which gives a discount to hotel guests), but otherwise nothing else close by.  The rooms need a lot of updating.  Most La Quinta's I've stayed in have been very nice with updated furnishings.  This one was like La Quinta bought it from another chain, slapped on a new roof and some paint and called it done.  It was clean and beds were comfortable, but needs more work it make it worthy of it's name.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r155265532-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>155265532</t>
+  </si>
+  <si>
+    <t>03/21/2013</t>
+  </si>
+  <si>
+    <t>Amazing the pool was great and the staff so nice</t>
+  </si>
+  <si>
+    <t>After a terrible hotel stay at Hotel trinity Fort Worth, we were very glad to stay in a lower star (couldn't figure that out) hotel that was amazing. Everything we wanted after the terrible stay. Nice warm showers. An amazing indoor HEATED pool. It was perfect. We wanted a bit of a baby moon just the 2 of us and we got it with this hotel. Lots of restaurants around the hotel and easy access to the airport. I cannot say enough good things about this property. There are 2 of these hotels across the freeway from each other. I am hopefully talking about the one on the east of the freeway. If not, then go to that one.MoreShow less</t>
+  </si>
+  <si>
+    <t>February 2013</t>
+  </si>
+  <si>
+    <t>After a terrible hotel stay at Hotel trinity Fort Worth, we were very glad to stay in a lower star (couldn't figure that out) hotel that was amazing. Everything we wanted after the terrible stay. Nice warm showers. An amazing indoor HEATED pool. It was perfect. We wanted a bit of a baby moon just the 2 of us and we got it with this hotel. Lots of restaurants around the hotel and easy access to the airport. I cannot say enough good things about this property. There are 2 of these hotels across the freeway from each other. I am hopefully talking about the one on the east of the freeway. If not, then go to that one.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r154285637-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>154285637</t>
+  </si>
+  <si>
+    <t>03/11/2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r145283147-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>145283147</t>
+  </si>
+  <si>
+    <t>11/12/2012</t>
+  </si>
+  <si>
+    <t>Just a little rough around the edges but otherwise fine.</t>
+  </si>
+  <si>
+    <t>This La Quinta has seen a lot of use without much upkeep. Stayed five days with no real complaints. The room was clean and the air and TV worked. I guess that makes it all okay with me. The twenty percent off at IHOP with my room key was a nice touch. The price of the room was reasonable and I would stay here again on my next trip to Fort Worth.</t>
+  </si>
+  <si>
+    <t>October 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r143621079-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>143621079</t>
+  </si>
+  <si>
+    <t>10/24/2012</t>
+  </si>
+  <si>
+    <t>Really inferior</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Alas, as is so frequent with La Quinta, one never knows whether its newer and in good shape or old and inferior. This had to be one of the dirtier hotels we have ever stayed in. The room was clean but with holes in the carpet, doors and walls and had shabby and dirty lounge chair , The common areas were disgusting. This experience may stop us from ever choosing a La Quinta again. </t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r143146595-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>143146595</t>
+  </si>
+  <si>
+    <t>10/18/2012</t>
+  </si>
+  <si>
+    <t>Forth Worth trip for WCA</t>
+  </si>
+  <si>
+    <t xml:space="preserve">We stayed in Fort Worth due to the tracking event being there.  The motel was better than expected.  Clean rooms, friendly staff, close to restaurants and our event...and dogs are welcome!  It was driving distance to the main dog show held in Belton and the La Quinta there was the  host hotel for the event.  For me it was an excellent lower end inn.  </t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r137622378-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>137622378</t>
+  </si>
+  <si>
+    <t>08/19/2012</t>
+  </si>
+  <si>
+    <t>very nice</t>
+  </si>
+  <si>
+    <t>This is a great place to stay with kids, clean, very nice people, so if you need and Safe clean place to stay I would tell you to stay here while in Fort Worth they say i need to do 200 characters i just dont have that much to write when its all good i dont need 200</t>
+  </si>
+  <si>
+    <t>April 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r135144572-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>135144572</t>
+  </si>
+  <si>
+    <t>07/23/2012</t>
+  </si>
+  <si>
+    <t>Great</t>
+  </si>
+  <si>
+    <t>Stayed here after driving all day.Very ciean .Best of all air conditioning was very cold.Will stay here next trip.</t>
+  </si>
+  <si>
+    <t>July 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r134839031-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>134839031</t>
+  </si>
+  <si>
+    <t>07/19/2012</t>
+  </si>
+  <si>
+    <t>Older Laquinta.. But okay</t>
+  </si>
+  <si>
+    <t>This is an older La Quinta.  The bed in the room was very soft and easy to sleep on.  The bathroom was very tiny, but we survived.The staff did a great job at keeping my room and the entire facility clean; however, this hotel needs some renevations done.  I think with some little work, this hotel will be up to the standards to all the other wonderful La Quintas that I have stayed in.I do recommend that curtains or blinds be placed in the breakfast area.  The morning sun can be bright and it shines right through those windows.The staff was very friendly at this location.When I return to Fort Worth again, I will consider staying here.MoreShow less</t>
+  </si>
+  <si>
+    <t>This is an older La Quinta.  The bed in the room was very soft and easy to sleep on.  The bathroom was very tiny, but we survived.The staff did a great job at keeping my room and the entire facility clean; however, this hotel needs some renevations done.  I think with some little work, this hotel will be up to the standards to all the other wonderful La Quintas that I have stayed in.I do recommend that curtains or blinds be placed in the breakfast area.  The morning sun can be bright and it shines right through those windows.The staff was very friendly at this location.When I return to Fort Worth again, I will consider staying here.More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r131710321-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>131710321</t>
+  </si>
+  <si>
+    <t>06/10/2012</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r128937296-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>128937296</t>
+  </si>
+  <si>
+    <t>04/27/2012</t>
+  </si>
+  <si>
+    <t>A Brand in Decline</t>
+  </si>
+  <si>
+    <t>La Quinta used to be on my "safe" list, but two bad experiences separated by half the country tell me this is a brand that has changed hands or decided to change it's target demographic. Inconvenient and untimely maid service, bleh rooms and terrible internet both here and in San Jose have taken La Quinta off my list.  It was next to a 24- hour pancake house and close to the freeway.</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r126367548-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>126367548</t>
+  </si>
+  <si>
+    <t>03/19/2012</t>
+  </si>
+  <si>
+    <t>Tips for improvement</t>
+  </si>
+  <si>
+    <t>This LQ not of the quality of others. The exterior needed updating. I did not feel safe, there was a group of men pushing/shoving and making noise in the parking lot during the night. The only ice machine that worked was near the lobby &amp; upstairs. The staff was friendly.</t>
+  </si>
+  <si>
+    <t>March 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r108075142-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>108075142</t>
+  </si>
+  <si>
+    <t>05/13/2011</t>
+  </si>
+  <si>
+    <t>Home away from home...</t>
+  </si>
+  <si>
+    <t>My husband and I stay here on average about once a month - and have for several years. He's in the Naval Reserves and comes here to drill at the base nearby. We stay here so we can bring our four legged 'children'. (Which we can't do on base) The staff is ALWAYS friendly and VERY accommodating; on the times when I need a late Sunday check out because he's tied up at the base they always let me and are just so nice about it.</t>
+  </si>
+  <si>
+    <t>February 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r72088873-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>72088873</t>
+  </si>
+  <si>
+    <t>07/23/2010</t>
+  </si>
+  <si>
+    <t>Great Service, Great Price, Pet Friendly</t>
+  </si>
+  <si>
+    <t>Traveling with pets so found this place on pet friendly site. The first room we checked into smelled of dog urine so bad we could not stay in it. The staff was VERY accomodating switched us to a new room immediately, and staff very aplogetic. I also received an email from the manager that night. The front office was great in giving me restaurant advice . The room was clean and bed comfy. Their is a huge field on the property great for our dogs to run and do business. Pool was a lttle dirty. Overall would stay again.</t>
+  </si>
+  <si>
+    <t>July 2010</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r7666198-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>7666198</t>
+  </si>
+  <si>
+    <t>05/20/2007</t>
+  </si>
+  <si>
+    <t>NOt bad for the price</t>
+  </si>
+  <si>
+    <t>This hotel is not bad for the price. The rooms were clean and the staff was friendly.  At 1:oo am, our air conditioner stopped working.  We called the front desk, and they instantly moved us to another room.  Early the next morning, we noticed that a repair man was moving air conditioners around, so prompt attention was given to that problem.  Breakfast was a decent selection of free breakfast foods.  Nothing fancy, but if you are looking for a clean room, this would be a fine place to stay.</t>
   </si>
 </sst>
 </file>
@@ -648,6 +1080,1546 @@
         <v>43</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
+        <v>45</v>
+      </c>
+      <c r="G2" t="s">
+        <v>46</v>
+      </c>
+      <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
+        <v>48</v>
+      </c>
+      <c r="J2" t="s">
+        <v>49</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>51</v>
+      </c>
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
+        <v>52</v>
+      </c>
+      <c r="O2" t="s">
+        <v>53</v>
+      </c>
+      <c r="P2" t="s"/>
+      <c r="Q2" t="s"/>
+      <c r="R2" t="s"/>
+      <c r="S2" t="s"/>
+      <c r="T2" t="s"/>
+      <c r="U2" t="s"/>
+      <c r="V2" t="n">
+        <v>0</v>
+      </c>
+      <c r="W2" t="s"/>
+      <c r="X2" t="s"/>
+      <c r="Y2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>44</v>
+      </c>
+      <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
+        <v>56</v>
+      </c>
+      <c r="K3" t="s">
+        <v>57</v>
+      </c>
+      <c r="L3" t="s">
+        <v>58</v>
+      </c>
+      <c r="M3" t="n">
+        <v>1</v>
+      </c>
+      <c r="N3" t="s">
+        <v>59</v>
+      </c>
+      <c r="O3" t="s">
+        <v>53</v>
+      </c>
+      <c r="P3" t="s"/>
+      <c r="Q3" t="n">
+        <v>1</v>
+      </c>
+      <c r="R3" t="n">
+        <v>4</v>
+      </c>
+      <c r="S3" t="s"/>
+      <c r="T3" t="s"/>
+      <c r="U3" t="n">
+        <v>3</v>
+      </c>
+      <c r="V3" t="n">
+        <v>0</v>
+      </c>
+      <c r="W3" t="s"/>
+      <c r="X3" t="s"/>
+      <c r="Y3" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>60</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
+        <v>61</v>
+      </c>
+      <c r="J4" t="s">
+        <v>62</v>
+      </c>
+      <c r="K4" t="s">
+        <v>63</v>
+      </c>
+      <c r="L4" t="s">
+        <v>64</v>
+      </c>
+      <c r="M4" t="n">
+        <v>1</v>
+      </c>
+      <c r="N4" t="s">
+        <v>65</v>
+      </c>
+      <c r="O4" t="s">
+        <v>66</v>
+      </c>
+      <c r="P4" t="s"/>
+      <c r="Q4" t="s"/>
+      <c r="R4" t="s"/>
+      <c r="S4" t="n">
+        <v>1</v>
+      </c>
+      <c r="T4" t="s"/>
+      <c r="U4" t="n">
+        <v>1</v>
+      </c>
+      <c r="V4" t="n">
+        <v>0</v>
+      </c>
+      <c r="W4" t="s"/>
+      <c r="X4" t="s"/>
+      <c r="Y4" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
+        <v>71</v>
+      </c>
+      <c r="L5" t="s">
+        <v>72</v>
+      </c>
+      <c r="M5" t="n">
+        <v>3</v>
+      </c>
+      <c r="N5" t="s">
+        <v>73</v>
+      </c>
+      <c r="O5" t="s">
+        <v>74</v>
+      </c>
+      <c r="P5" t="s"/>
+      <c r="Q5" t="s"/>
+      <c r="R5" t="s"/>
+      <c r="S5" t="s"/>
+      <c r="T5" t="s"/>
+      <c r="U5" t="s"/>
+      <c r="V5" t="n">
+        <v>0</v>
+      </c>
+      <c r="W5" t="s"/>
+      <c r="X5" t="s"/>
+      <c r="Y5" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
+      <c r="D6" t="n">
+        <v>5</v>
+      </c>
+      <c r="E6" t="s">
+        <v>44</v>
+      </c>
+      <c r="F6" t="s">
+        <v>75</v>
+      </c>
+      <c r="G6" t="s">
+        <v>46</v>
+      </c>
+      <c r="H6" t="s">
+        <v>47</v>
+      </c>
+      <c r="I6" t="s">
+        <v>76</v>
+      </c>
+      <c r="J6" t="s">
+        <v>77</v>
+      </c>
+      <c r="K6" t="s">
+        <v>78</v>
+      </c>
+      <c r="L6" t="s">
+        <v>79</v>
+      </c>
+      <c r="M6" t="n">
+        <v>1</v>
+      </c>
+      <c r="N6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O6" t="s">
+        <v>74</v>
+      </c>
+      <c r="P6" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q6" t="s"/>
+      <c r="R6" t="s"/>
+      <c r="S6" t="n">
+        <v>1</v>
+      </c>
+      <c r="T6" t="s"/>
+      <c r="U6" t="n">
+        <v>3</v>
+      </c>
+      <c r="V6" t="n">
+        <v>0</v>
+      </c>
+      <c r="W6" t="s"/>
+      <c r="X6" t="s"/>
+      <c r="Y6" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
+      <c r="D7" t="n">
+        <v>6</v>
+      </c>
+      <c r="E7" t="s">
+        <v>44</v>
+      </c>
+      <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>5</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P7" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q7" t="n">
+        <v>5</v>
+      </c>
+      <c r="R7" t="n">
+        <v>5</v>
+      </c>
+      <c r="S7" t="n">
+        <v>5</v>
+      </c>
+      <c r="T7" t="s"/>
+      <c r="U7" t="n">
+        <v>5</v>
+      </c>
+      <c r="V7" t="n">
+        <v>0</v>
+      </c>
+      <c r="W7" t="s"/>
+      <c r="X7" t="s"/>
+      <c r="Y7" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
+      <c r="D8" t="n">
+        <v>7</v>
+      </c>
+      <c r="E8" t="s">
+        <v>44</v>
+      </c>
+      <c r="F8" t="s">
+        <v>87</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>88</v>
+      </c>
+      <c r="J8" t="s">
+        <v>89</v>
+      </c>
+      <c r="K8" t="s">
+        <v>90</v>
+      </c>
+      <c r="L8" t="s">
+        <v>91</v>
+      </c>
+      <c r="M8" t="n">
+        <v>4</v>
+      </c>
+      <c r="N8" t="s">
+        <v>86</v>
+      </c>
+      <c r="O8" t="s">
+        <v>66</v>
+      </c>
+      <c r="P8" t="s"/>
+      <c r="Q8" t="s"/>
+      <c r="R8" t="s"/>
+      <c r="S8" t="s"/>
+      <c r="T8" t="s"/>
+      <c r="U8" t="s"/>
+      <c r="V8" t="n">
+        <v>0</v>
+      </c>
+      <c r="W8" t="s"/>
+      <c r="X8" t="s"/>
+      <c r="Y8" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
+      <c r="D9" t="n">
+        <v>8</v>
+      </c>
+      <c r="E9" t="s">
+        <v>44</v>
+      </c>
+      <c r="F9" t="s">
+        <v>92</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>93</v>
+      </c>
+      <c r="J9" t="s">
+        <v>94</v>
+      </c>
+      <c r="K9" t="s">
+        <v>95</v>
+      </c>
+      <c r="L9" t="s">
+        <v>96</v>
+      </c>
+      <c r="M9" t="n">
+        <v>2</v>
+      </c>
+      <c r="N9" t="s"/>
+      <c r="O9" t="s"/>
+      <c r="P9" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q9" t="n">
+        <v>2</v>
+      </c>
+      <c r="R9" t="n">
+        <v>2</v>
+      </c>
+      <c r="S9" t="n">
+        <v>4</v>
+      </c>
+      <c r="T9" t="s"/>
+      <c r="U9" t="n">
+        <v>2</v>
+      </c>
+      <c r="V9" t="n">
+        <v>0</v>
+      </c>
+      <c r="W9" t="s"/>
+      <c r="X9" t="s"/>
+      <c r="Y9" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
+      <c r="D10" t="n">
+        <v>9</v>
+      </c>
+      <c r="E10" t="s">
+        <v>44</v>
+      </c>
+      <c r="F10" t="s">
+        <v>98</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>99</v>
+      </c>
+      <c r="J10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K10" t="s">
+        <v>101</v>
+      </c>
+      <c r="L10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M10" t="n">
+        <v>5</v>
+      </c>
+      <c r="N10" t="s">
+        <v>103</v>
+      </c>
+      <c r="O10" t="s">
+        <v>104</v>
+      </c>
+      <c r="P10" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q10" t="n">
+        <v>5</v>
+      </c>
+      <c r="R10" t="n">
+        <v>5</v>
+      </c>
+      <c r="S10" t="n">
+        <v>5</v>
+      </c>
+      <c r="T10" t="s"/>
+      <c r="U10" t="n">
+        <v>5</v>
+      </c>
+      <c r="V10" t="n">
+        <v>0</v>
+      </c>
+      <c r="W10" t="s"/>
+      <c r="X10" t="s"/>
+      <c r="Y10" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
+      <c r="D11" t="n">
+        <v>10</v>
+      </c>
+      <c r="E11" t="s">
+        <v>44</v>
+      </c>
+      <c r="F11" t="s">
+        <v>105</v>
+      </c>
+      <c r="G11" t="s">
+        <v>46</v>
+      </c>
+      <c r="H11" t="s">
+        <v>47</v>
+      </c>
+      <c r="I11" t="s">
+        <v>106</v>
+      </c>
+      <c r="J11" t="s">
+        <v>107</v>
+      </c>
+      <c r="K11" t="s">
+        <v>108</v>
+      </c>
+      <c r="L11" t="s">
+        <v>109</v>
+      </c>
+      <c r="M11" t="n">
+        <v>3</v>
+      </c>
+      <c r="N11" t="s">
+        <v>110</v>
+      </c>
+      <c r="O11" t="s">
+        <v>104</v>
+      </c>
+      <c r="P11" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q11" t="n">
+        <v>2</v>
+      </c>
+      <c r="R11" t="n">
+        <v>2</v>
+      </c>
+      <c r="S11" t="n">
+        <v>3</v>
+      </c>
+      <c r="T11" t="s"/>
+      <c r="U11" t="n">
+        <v>5</v>
+      </c>
+      <c r="V11" t="n">
+        <v>0</v>
+      </c>
+      <c r="W11" t="s"/>
+      <c r="X11" t="s"/>
+      <c r="Y11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
+      <c r="D12" t="n">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>44</v>
+      </c>
+      <c r="F12" t="s">
+        <v>111</v>
+      </c>
+      <c r="G12" t="s">
+        <v>46</v>
+      </c>
+      <c r="H12" t="s">
+        <v>47</v>
+      </c>
+      <c r="I12" t="s">
+        <v>112</v>
+      </c>
+      <c r="J12" t="s">
+        <v>113</v>
+      </c>
+      <c r="K12" t="s">
+        <v>114</v>
+      </c>
+      <c r="L12" t="s">
+        <v>115</v>
+      </c>
+      <c r="M12" t="n">
+        <v>5</v>
+      </c>
+      <c r="N12" t="s">
+        <v>116</v>
+      </c>
+      <c r="O12" t="s">
+        <v>53</v>
+      </c>
+      <c r="P12" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q12" t="n">
+        <v>5</v>
+      </c>
+      <c r="R12" t="n">
+        <v>5</v>
+      </c>
+      <c r="S12" t="n">
+        <v>5</v>
+      </c>
+      <c r="T12" t="s"/>
+      <c r="U12" t="n">
+        <v>5</v>
+      </c>
+      <c r="V12" t="n">
+        <v>0</v>
+      </c>
+      <c r="W12" t="s"/>
+      <c r="X12" t="s"/>
+      <c r="Y12" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
+      <c r="D13" t="n">
+        <v>12</v>
+      </c>
+      <c r="E13" t="s">
+        <v>44</v>
+      </c>
+      <c r="F13" t="s">
+        <v>118</v>
+      </c>
+      <c r="G13" t="s">
+        <v>46</v>
+      </c>
+      <c r="H13" t="s">
+        <v>47</v>
+      </c>
+      <c r="I13" t="s">
+        <v>119</v>
+      </c>
+      <c r="J13" t="s">
+        <v>120</v>
+      </c>
+      <c r="K13" t="s"/>
+      <c r="L13" t="s"/>
+      <c r="M13" t="n">
+        <v>4</v>
+      </c>
+      <c r="N13" t="s">
+        <v>110</v>
+      </c>
+      <c r="O13" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q13" t="n">
+        <v>3</v>
+      </c>
+      <c r="R13" t="n">
+        <v>3</v>
+      </c>
+      <c r="S13" t="n">
+        <v>4</v>
+      </c>
+      <c r="T13" t="s"/>
+      <c r="U13" t="n">
+        <v>5</v>
+      </c>
+      <c r="V13" t="n">
+        <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s"/>
+    </row>
+    <row r="14">
+      <c r="A14" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
+      <c r="D14" t="n">
+        <v>13</v>
+      </c>
+      <c r="E14" t="s">
+        <v>44</v>
+      </c>
+      <c r="F14" t="s">
+        <v>121</v>
+      </c>
+      <c r="G14" t="s">
+        <v>46</v>
+      </c>
+      <c r="H14" t="s">
+        <v>47</v>
+      </c>
+      <c r="I14" t="s">
+        <v>122</v>
+      </c>
+      <c r="J14" t="s">
+        <v>123</v>
+      </c>
+      <c r="K14" t="s">
+        <v>124</v>
+      </c>
+      <c r="L14" t="s">
+        <v>125</v>
+      </c>
+      <c r="M14" t="n">
+        <v>3</v>
+      </c>
+      <c r="N14" t="s">
+        <v>126</v>
+      </c>
+      <c r="O14" t="s">
+        <v>66</v>
+      </c>
+      <c r="P14" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q14" t="n">
+        <v>3</v>
+      </c>
+      <c r="R14" t="n">
+        <v>4</v>
+      </c>
+      <c r="S14" t="n">
+        <v>3</v>
+      </c>
+      <c r="T14" t="s"/>
+      <c r="U14" t="n">
+        <v>4</v>
+      </c>
+      <c r="V14" t="n">
+        <v>0</v>
+      </c>
+      <c r="W14" t="s"/>
+      <c r="X14" t="s"/>
+      <c r="Y14" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
+      <c r="D15" t="n">
+        <v>14</v>
+      </c>
+      <c r="E15" t="s">
+        <v>44</v>
+      </c>
+      <c r="F15" t="s">
+        <v>127</v>
+      </c>
+      <c r="G15" t="s">
+        <v>46</v>
+      </c>
+      <c r="H15" t="s">
+        <v>47</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>129</v>
+      </c>
+      <c r="K15" t="s">
+        <v>130</v>
+      </c>
+      <c r="L15" t="s">
+        <v>131</v>
+      </c>
+      <c r="M15" t="n">
+        <v>1</v>
+      </c>
+      <c r="N15" t="s">
+        <v>126</v>
+      </c>
+      <c r="O15" t="s">
+        <v>74</v>
+      </c>
+      <c r="P15" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q15" t="n">
+        <v>2</v>
+      </c>
+      <c r="R15" t="n">
+        <v>2</v>
+      </c>
+      <c r="S15" t="n">
+        <v>1</v>
+      </c>
+      <c r="T15" t="s"/>
+      <c r="U15" t="n">
+        <v>1</v>
+      </c>
+      <c r="V15" t="n">
+        <v>0</v>
+      </c>
+      <c r="W15" t="s"/>
+      <c r="X15" t="s"/>
+      <c r="Y15" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
+      <c r="D16" t="n">
+        <v>15</v>
+      </c>
+      <c r="E16" t="s">
+        <v>44</v>
+      </c>
+      <c r="F16" t="s">
+        <v>132</v>
+      </c>
+      <c r="G16" t="s">
+        <v>46</v>
+      </c>
+      <c r="H16" t="s">
+        <v>47</v>
+      </c>
+      <c r="I16" t="s">
+        <v>133</v>
+      </c>
+      <c r="J16" t="s">
+        <v>134</v>
+      </c>
+      <c r="K16" t="s">
+        <v>135</v>
+      </c>
+      <c r="L16" t="s">
+        <v>136</v>
+      </c>
+      <c r="M16" t="n">
+        <v>5</v>
+      </c>
+      <c r="N16" t="s">
+        <v>126</v>
+      </c>
+      <c r="O16" t="s">
+        <v>137</v>
+      </c>
+      <c r="P16" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q16" t="n">
+        <v>5</v>
+      </c>
+      <c r="R16" t="n">
+        <v>5</v>
+      </c>
+      <c r="S16" t="n">
+        <v>5</v>
+      </c>
+      <c r="T16" t="s"/>
+      <c r="U16" t="n">
+        <v>5</v>
+      </c>
+      <c r="V16" t="n">
+        <v>0</v>
+      </c>
+      <c r="W16" t="s"/>
+      <c r="X16" t="s"/>
+      <c r="Y16" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
+      <c r="D17" t="n">
+        <v>16</v>
+      </c>
+      <c r="E17" t="s">
+        <v>44</v>
+      </c>
+      <c r="F17" t="s">
+        <v>138</v>
+      </c>
+      <c r="G17" t="s">
+        <v>46</v>
+      </c>
+      <c r="H17" t="s">
+        <v>47</v>
+      </c>
+      <c r="I17" t="s">
+        <v>139</v>
+      </c>
+      <c r="J17" t="s">
+        <v>140</v>
+      </c>
+      <c r="K17" t="s">
+        <v>141</v>
+      </c>
+      <c r="L17" t="s">
+        <v>142</v>
+      </c>
+      <c r="M17" t="n">
+        <v>5</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+      <c r="O17" t="s">
+        <v>74</v>
+      </c>
+      <c r="P17" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q17" t="n">
+        <v>5</v>
+      </c>
+      <c r="R17" t="n">
+        <v>5</v>
+      </c>
+      <c r="S17" t="n">
+        <v>5</v>
+      </c>
+      <c r="T17" t="s"/>
+      <c r="U17" t="n">
+        <v>5</v>
+      </c>
+      <c r="V17" t="n">
+        <v>0</v>
+      </c>
+      <c r="W17" t="s"/>
+      <c r="X17" t="s"/>
+      <c r="Y17" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
+      <c r="D18" t="n">
+        <v>17</v>
+      </c>
+      <c r="E18" t="s">
+        <v>44</v>
+      </c>
+      <c r="F18" t="s">
+        <v>144</v>
+      </c>
+      <c r="G18" t="s">
+        <v>46</v>
+      </c>
+      <c r="H18" t="s">
+        <v>47</v>
+      </c>
+      <c r="I18" t="s">
+        <v>145</v>
+      </c>
+      <c r="J18" t="s">
+        <v>146</v>
+      </c>
+      <c r="K18" t="s">
+        <v>147</v>
+      </c>
+      <c r="L18" t="s">
+        <v>148</v>
+      </c>
+      <c r="M18" t="n">
+        <v>5</v>
+      </c>
+      <c r="N18" t="s">
+        <v>149</v>
+      </c>
+      <c r="O18" t="s">
+        <v>66</v>
+      </c>
+      <c r="P18" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q18" t="n">
+        <v>5</v>
+      </c>
+      <c r="R18" t="n">
+        <v>4</v>
+      </c>
+      <c r="S18" t="n">
+        <v>5</v>
+      </c>
+      <c r="T18" t="s"/>
+      <c r="U18" t="n">
+        <v>4</v>
+      </c>
+      <c r="V18" t="n">
+        <v>0</v>
+      </c>
+      <c r="W18" t="s"/>
+      <c r="X18" t="s"/>
+      <c r="Y18" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
+      <c r="D19" t="n">
+        <v>18</v>
+      </c>
+      <c r="E19" t="s">
+        <v>44</v>
+      </c>
+      <c r="F19" t="s">
+        <v>150</v>
+      </c>
+      <c r="G19" t="s">
+        <v>46</v>
+      </c>
+      <c r="H19" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
+        <v>151</v>
+      </c>
+      <c r="J19" t="s">
+        <v>152</v>
+      </c>
+      <c r="K19" t="s">
+        <v>153</v>
+      </c>
+      <c r="L19" t="s">
+        <v>154</v>
+      </c>
+      <c r="M19" t="n">
+        <v>4</v>
+      </c>
+      <c r="N19" t="s"/>
+      <c r="O19" t="s"/>
+      <c r="P19" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>4</v>
+      </c>
+      <c r="R19" t="n">
+        <v>5</v>
+      </c>
+      <c r="S19" t="n">
+        <v>4</v>
+      </c>
+      <c r="T19" t="s"/>
+      <c r="U19" t="n">
+        <v>4</v>
+      </c>
+      <c r="V19" t="n">
+        <v>0</v>
+      </c>
+      <c r="W19" t="s"/>
+      <c r="X19" t="s"/>
+      <c r="Y19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
+      <c r="D20" t="n">
+        <v>19</v>
+      </c>
+      <c r="E20" t="s">
+        <v>44</v>
+      </c>
+      <c r="F20" t="s">
+        <v>156</v>
+      </c>
+      <c r="G20" t="s">
+        <v>46</v>
+      </c>
+      <c r="H20" t="s">
+        <v>47</v>
+      </c>
+      <c r="I20" t="s">
+        <v>157</v>
+      </c>
+      <c r="J20" t="s">
+        <v>158</v>
+      </c>
+      <c r="K20" t="s"/>
+      <c r="L20" t="s"/>
+      <c r="M20" t="n">
+        <v>2</v>
+      </c>
+      <c r="N20" t="s">
+        <v>159</v>
+      </c>
+      <c r="O20" t="s">
+        <v>104</v>
+      </c>
+      <c r="P20" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q20" t="n">
+        <v>3</v>
+      </c>
+      <c r="R20" t="n">
+        <v>5</v>
+      </c>
+      <c r="S20" t="n">
+        <v>2</v>
+      </c>
+      <c r="T20" t="s"/>
+      <c r="U20" t="n">
+        <v>2</v>
+      </c>
+      <c r="V20" t="n">
+        <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s"/>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
+      <c r="D21" t="n">
+        <v>20</v>
+      </c>
+      <c r="E21" t="s">
+        <v>44</v>
+      </c>
+      <c r="F21" t="s">
+        <v>160</v>
+      </c>
+      <c r="G21" t="s">
+        <v>46</v>
+      </c>
+      <c r="H21" t="s">
+        <v>47</v>
+      </c>
+      <c r="I21" t="s">
+        <v>161</v>
+      </c>
+      <c r="J21" t="s">
+        <v>162</v>
+      </c>
+      <c r="K21" t="s">
+        <v>163</v>
+      </c>
+      <c r="L21" t="s">
+        <v>164</v>
+      </c>
+      <c r="M21" t="n">
+        <v>2</v>
+      </c>
+      <c r="N21" t="s">
+        <v>143</v>
+      </c>
+      <c r="O21" t="s">
+        <v>74</v>
+      </c>
+      <c r="P21" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q21" t="n">
+        <v>3</v>
+      </c>
+      <c r="R21" t="n">
+        <v>4</v>
+      </c>
+      <c r="S21" t="n">
+        <v>2</v>
+      </c>
+      <c r="T21" t="s"/>
+      <c r="U21" t="n">
+        <v>2</v>
+      </c>
+      <c r="V21" t="n">
+        <v>0</v>
+      </c>
+      <c r="W21" t="s"/>
+      <c r="X21" t="s"/>
+      <c r="Y21" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
+      <c r="D22" t="n">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>44</v>
+      </c>
+      <c r="F22" t="s">
+        <v>165</v>
+      </c>
+      <c r="G22" t="s">
+        <v>46</v>
+      </c>
+      <c r="H22" t="s">
+        <v>47</v>
+      </c>
+      <c r="I22" t="s">
+        <v>166</v>
+      </c>
+      <c r="J22" t="s">
+        <v>167</v>
+      </c>
+      <c r="K22" t="s">
+        <v>168</v>
+      </c>
+      <c r="L22" t="s">
+        <v>169</v>
+      </c>
+      <c r="M22" t="n">
+        <v>2</v>
+      </c>
+      <c r="N22" t="s">
+        <v>170</v>
+      </c>
+      <c r="O22" t="s">
+        <v>104</v>
+      </c>
+      <c r="P22" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q22" t="n">
+        <v>2</v>
+      </c>
+      <c r="R22" t="n">
+        <v>3</v>
+      </c>
+      <c r="S22" t="n">
+        <v>2</v>
+      </c>
+      <c r="T22" t="s"/>
+      <c r="U22" t="n">
+        <v>3</v>
+      </c>
+      <c r="V22" t="n">
+        <v>0</v>
+      </c>
+      <c r="W22" t="s"/>
+      <c r="X22" t="s"/>
+      <c r="Y22" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
+      <c r="D23" t="n">
+        <v>22</v>
+      </c>
+      <c r="E23" t="s">
+        <v>44</v>
+      </c>
+      <c r="F23" t="s">
+        <v>171</v>
+      </c>
+      <c r="G23" t="s">
+        <v>46</v>
+      </c>
+      <c r="H23" t="s">
+        <v>47</v>
+      </c>
+      <c r="I23" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" t="s">
+        <v>173</v>
+      </c>
+      <c r="K23" t="s">
+        <v>174</v>
+      </c>
+      <c r="L23" t="s">
+        <v>175</v>
+      </c>
+      <c r="M23" t="n">
+        <v>4</v>
+      </c>
+      <c r="N23" t="s">
+        <v>176</v>
+      </c>
+      <c r="O23" t="s">
+        <v>66</v>
+      </c>
+      <c r="P23" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q23" t="n">
+        <v>5</v>
+      </c>
+      <c r="R23" t="n">
+        <v>5</v>
+      </c>
+      <c r="S23" t="n">
+        <v>5</v>
+      </c>
+      <c r="T23" t="s"/>
+      <c r="U23" t="n">
+        <v>5</v>
+      </c>
+      <c r="V23" t="n">
+        <v>0</v>
+      </c>
+      <c r="W23" t="s"/>
+      <c r="X23" t="s"/>
+      <c r="Y23" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
+      <c r="D24" t="n">
+        <v>23</v>
+      </c>
+      <c r="E24" t="s">
+        <v>44</v>
+      </c>
+      <c r="F24" t="s">
+        <v>177</v>
+      </c>
+      <c r="G24" t="s">
+        <v>46</v>
+      </c>
+      <c r="H24" t="s">
+        <v>47</v>
+      </c>
+      <c r="I24" t="s">
+        <v>178</v>
+      </c>
+      <c r="J24" t="s">
+        <v>179</v>
+      </c>
+      <c r="K24" t="s">
+        <v>180</v>
+      </c>
+      <c r="L24" t="s">
+        <v>181</v>
+      </c>
+      <c r="M24" t="n">
+        <v>4</v>
+      </c>
+      <c r="N24" t="s">
+        <v>182</v>
+      </c>
+      <c r="O24" t="s">
+        <v>74</v>
+      </c>
+      <c r="P24" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q24" t="n">
+        <v>4</v>
+      </c>
+      <c r="R24" t="n">
+        <v>3</v>
+      </c>
+      <c r="S24" t="n">
+        <v>4</v>
+      </c>
+      <c r="T24" t="s"/>
+      <c r="U24" t="n">
+        <v>5</v>
+      </c>
+      <c r="V24" t="n">
+        <v>0</v>
+      </c>
+      <c r="W24" t="s"/>
+      <c r="X24" t="s"/>
+      <c r="Y24" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
+      <c r="D25" t="n">
+        <v>24</v>
+      </c>
+      <c r="E25" t="s">
+        <v>44</v>
+      </c>
+      <c r="F25" t="s">
+        <v>183</v>
+      </c>
+      <c r="G25" t="s">
+        <v>46</v>
+      </c>
+      <c r="H25" t="s">
+        <v>47</v>
+      </c>
+      <c r="I25" t="s">
+        <v>184</v>
+      </c>
+      <c r="J25" t="s">
+        <v>185</v>
+      </c>
+      <c r="K25" t="s">
+        <v>186</v>
+      </c>
+      <c r="L25" t="s">
+        <v>187</v>
+      </c>
+      <c r="M25" t="n">
+        <v>3</v>
+      </c>
+      <c r="N25" t="s"/>
+      <c r="O25" t="s"/>
+      <c r="P25" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q25" t="n">
+        <v>3</v>
+      </c>
+      <c r="R25" t="n">
+        <v>4</v>
+      </c>
+      <c r="S25" t="n">
+        <v>3</v>
+      </c>
+      <c r="T25" t="s"/>
+      <c r="U25" t="n">
+        <v>3</v>
+      </c>
+      <c r="V25" t="n">
+        <v>0</v>
+      </c>
+      <c r="W25" t="s"/>
+      <c r="X25" t="s"/>
+      <c r="Y25" t="s">
+        <v>187</v>
+      </c>
+    </row>
   </sheetData>
 </worksheet>
 </file>
--- a/data/hotels_by_city/Dallas/Dallas_shard_719.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_719.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="188">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
   <si>
     <t>STR#</t>
   </si>
@@ -150,6 +150,9 @@
     <t>response_text</t>
   </si>
   <si>
+    <t>Jojo681</t>
+  </si>
+  <si>
     <t>06/15/2018</t>
   </si>
   <si>
@@ -180,6 +183,9 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
+    <t>I_LOVED_CUBA</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r344650979-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -198,6 +204,9 @@
     <t>January 2016</t>
   </si>
   <si>
+    <t>Bluesbabe23</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r304595167-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -222,6 +231,9 @@
     <t>I stayed at this Studio 6 for 10 days ending July 11, 2015.  It was an extended business trip, fully paid before I arrived.  This is the worst hotel I have ever been in and I have stayed at budget hotels all over the country.  The sheets were stained and thin, the towels were not clean ( I used my own).  The carpet was unbearably nasty  (Keep your shoes on), but the worst part was the roaches.  Don't bring your stuff inside if you have to be at this facility.  Roaches overran the traps I purchased and set out.  If I was still in Fort Worth, I believe I would have to call the health department.  Oh, and the water was shut off for two days due to a water line break.  Please stay away from this place!More</t>
   </si>
   <si>
+    <t>Ajohnson0527</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r234497869-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -243,6 +255,9 @@
     <t xml:space="preserve"> traveled with family</t>
   </si>
   <si>
+    <t>TravelinEm1</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r233186399-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -261,6 +276,9 @@
     <t>Had stayed at this hotel 10-15 years ago when it was a new-ish La Quinta, and it was clean and perfectly fine for a short weekend visit. On this trip, it was a fallback after TWO "guaranteed" online bookings (one on bookings.com and the other on Travelocity -- argh) were denied at oversold 3-star properties over a local football game weekend. A clerk at the second oversold hotel (a nearby Fairfield Inn and Suites) graciously called around and found availability at this place for my 80-ish parents, and I joined there on the second night prior to a family funeral. It was awful, even having had appropriate expectations for a 2-star budget stay. Without painful elaboration, I'll just say that it was in disrepair, was dirty, and appears to be an "extended stay" for people who are experiencing unfortunate economic circumstances. If I had arrived there as a woman staying alone, I would not have set foot in the place. At the very least, the owners of this property need to make proper repairs, clean it thoroughly, and invest in new sheets and towels.More</t>
   </si>
   <si>
+    <t>A TripAdvisor Member</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r169743587-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -279,6 +297,9 @@
     <t>June 2013</t>
   </si>
   <si>
+    <t>Toby E</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r162791333-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -294,6 +315,9 @@
     <t>This is my 3rd visit to Ft Worth as well as my 3rd stay at this hotel! Very friendly staff! Great waffle breakfasts! Fully stocked breakfast area and nice clean rooms for the money! If your in the area and need a nice quiet place to stay that's clean this is your place! I will be back!</t>
   </si>
   <si>
+    <t>Bbarre</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r162255147-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -312,6 +336,9 @@
     <t>You get what you pay for, I guess. Do you need to have the pass swipes using your hotel key to work so you can go into the lobby at 0300 to work?  They don't. Probably too dangerous a location to enable that feature. Do you need a modicum of a "business center" so you can print boarding passes. Nope. Not on the bare bones La Quinta experience. Do you want to have the desk guy print out a receipt to see what you might have been charged? Nope "you'll have to get it from Expedia where you booked it". Really? I mean, really?  Like another reviewer said - the is either the oldest La Quinta on the planet or a reclamation project from another chain. Either way, I would not stay here again if the room was free.More</t>
   </si>
   <si>
+    <t>A La Quinta traveler</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r158758779-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -333,6 +360,9 @@
     <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
+    <t>smithfamlyTX</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r155700147-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -351,6 +381,9 @@
     <t>March 2013</t>
   </si>
   <si>
+    <t>blueovalpony</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r155265532-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -381,6 +414,9 @@
     <t>03/11/2013</t>
   </si>
   <si>
+    <t>jerryj46307</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r145283147-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -399,6 +435,9 @@
     <t>October 2012</t>
   </si>
   <si>
+    <t>robertbK6956ZG</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r143621079-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -432,6 +471,9 @@
     <t xml:space="preserve"> traveled with friends</t>
   </si>
   <si>
+    <t>brookfieldwi</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r137622378-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -450,6 +492,9 @@
     <t>April 2012</t>
   </si>
   <si>
+    <t>sate2290</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r135144572-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -468,6 +513,9 @@
     <t>July 2012</t>
   </si>
   <si>
+    <t>Jhand2</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r134839031-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -486,6 +534,9 @@
     <t>This is an older La Quinta.  The bed in the room was very soft and easy to sleep on.  The bathroom was very tiny, but we survived.The staff did a great job at keeping my room and the entire facility clean; however, this hotel needs some renevations done.  I think with some little work, this hotel will be up to the standards to all the other wonderful La Quintas that I have stayed in.I do recommend that curtains or blinds be placed in the breakfast area.  The morning sun can be bright and it shines right through those windows.The staff was very friendly at this location.When I return to Fort Worth again, I will consider staying here.More</t>
   </si>
   <si>
+    <t>PegSimmons</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r131710321-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -498,6 +549,9 @@
     <t>June 2012</t>
   </si>
   <si>
+    <t>HummerBob</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r128937296-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -513,6 +567,9 @@
     <t>La Quinta used to be on my "safe" list, but two bad experiences separated by half the country tell me this is a brand that has changed hands or decided to change it's target demographic. Inconvenient and untimely maid service, bleh rooms and terrible internet both here and in San Jose have taken La Quinta off my list.  It was next to a 24- hour pancake house and close to the freeway.</t>
   </si>
   <si>
+    <t>mssusanp</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r126367548-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -531,6 +588,9 @@
     <t>March 2012</t>
   </si>
   <si>
+    <t>BitsyJoe</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r108075142-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -549,6 +609,9 @@
     <t>February 2011</t>
   </si>
   <si>
+    <t>lepapillion</t>
+  </si>
+  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r72088873-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -565,6 +628,9 @@
   </si>
   <si>
     <t>July 2010</t>
+  </si>
+  <si>
+    <t>travelingwoman72</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r7666198-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
@@ -1084,43 +1150,47 @@
       <c r="A2" t="n">
         <v>5209</v>
       </c>
-      <c r="B2" t="s"/>
-      <c r="C2" t="s"/>
+      <c r="B2" t="n">
+        <v>178320</v>
+      </c>
+      <c r="C2" t="s">
+        <v>44</v>
+      </c>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="G2" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="J2" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="L2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="M2" t="n">
         <v>4</v>
       </c>
       <c r="N2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="O2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1134,50 +1204,54 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5209</v>
       </c>
-      <c r="B3" t="s"/>
-      <c r="C3" t="s"/>
+      <c r="B3" t="n">
+        <v>178321</v>
+      </c>
+      <c r="C3" t="s">
+        <v>55</v>
+      </c>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F3" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="G3" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H3" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I3" t="s">
-        <v>55</v>
+        <v>57</v>
       </c>
       <c r="J3" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="K3" t="s">
-        <v>57</v>
+        <v>59</v>
       </c>
       <c r="L3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="O3" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P3" t="s"/>
       <c r="Q3" t="n">
@@ -1197,50 +1271,54 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>58</v>
+        <v>60</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5209</v>
       </c>
-      <c r="B4" t="s"/>
-      <c r="C4" t="s"/>
+      <c r="B4" t="n">
+        <v>178322</v>
+      </c>
+      <c r="C4" t="s">
+        <v>62</v>
+      </c>
       <c r="D4" t="n">
         <v>3</v>
       </c>
       <c r="E4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>63</v>
       </c>
       <c r="G4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H4" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I4" t="s">
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="J4" t="s">
-        <v>62</v>
+        <v>65</v>
       </c>
       <c r="K4" t="s">
-        <v>63</v>
+        <v>66</v>
       </c>
       <c r="L4" t="s">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="M4" t="n">
         <v>1</v>
       </c>
       <c r="N4" t="s">
-        <v>65</v>
+        <v>68</v>
       </c>
       <c r="O4" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
@@ -1258,50 +1336,54 @@
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>67</v>
+        <v>70</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5209</v>
       </c>
-      <c r="B5" t="s"/>
-      <c r="C5" t="s"/>
+      <c r="B5" t="n">
+        <v>70865</v>
+      </c>
+      <c r="C5" t="s">
+        <v>71</v>
+      </c>
       <c r="D5" t="n">
         <v>4</v>
       </c>
       <c r="E5" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F5" t="s">
-        <v>68</v>
+        <v>72</v>
       </c>
       <c r="G5" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I5" t="s">
-        <v>69</v>
+        <v>73</v>
       </c>
       <c r="J5" t="s">
-        <v>70</v>
+        <v>74</v>
       </c>
       <c r="K5" t="s">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="L5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
       <c r="M5" t="n">
         <v>3</v>
       </c>
       <c r="N5" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O5" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P5" t="s"/>
       <c r="Q5" t="s"/>
@@ -1315,50 +1397,54 @@
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>72</v>
+        <v>76</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5209</v>
       </c>
-      <c r="B6" t="s"/>
-      <c r="C6" t="s"/>
+      <c r="B6" t="n">
+        <v>178323</v>
+      </c>
+      <c r="C6" t="s">
+        <v>79</v>
+      </c>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F6" t="s">
-        <v>75</v>
+        <v>80</v>
       </c>
       <c r="G6" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H6" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I6" t="s">
-        <v>76</v>
+        <v>81</v>
       </c>
       <c r="J6" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="K6" t="s">
-        <v>78</v>
+        <v>83</v>
       </c>
       <c r="L6" t="s">
-        <v>79</v>
+        <v>84</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>73</v>
+        <v>77</v>
       </c>
       <c r="O6" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P6" t="n">
         <v>3</v>
@@ -1378,50 +1464,54 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5209</v>
       </c>
-      <c r="B7" t="s"/>
-      <c r="C7" t="s"/>
+      <c r="B7" t="n">
+        <v>7</v>
+      </c>
+      <c r="C7" t="s">
+        <v>86</v>
+      </c>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F7" t="s">
-        <v>81</v>
+        <v>87</v>
       </c>
       <c r="G7" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H7" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I7" t="s">
-        <v>82</v>
+        <v>88</v>
       </c>
       <c r="J7" t="s">
-        <v>83</v>
+        <v>89</v>
       </c>
       <c r="K7" t="s">
-        <v>84</v>
+        <v>90</v>
       </c>
       <c r="L7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
       <c r="M7" t="n">
         <v>5</v>
       </c>
       <c r="N7" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O7" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P7" t="n">
         <v>5</v>
@@ -1445,50 +1535,54 @@
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>85</v>
+        <v>91</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5209</v>
       </c>
-      <c r="B8" t="s"/>
-      <c r="C8" t="s"/>
+      <c r="B8" t="n">
+        <v>178324</v>
+      </c>
+      <c r="C8" t="s">
+        <v>93</v>
+      </c>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F8" t="s">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="G8" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H8" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I8" t="s">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="J8" t="s">
-        <v>89</v>
+        <v>96</v>
       </c>
       <c r="K8" t="s">
-        <v>90</v>
+        <v>97</v>
       </c>
       <c r="L8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
       <c r="M8" t="n">
         <v>4</v>
       </c>
       <c r="N8" t="s">
-        <v>86</v>
+        <v>92</v>
       </c>
       <c r="O8" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P8" t="s"/>
       <c r="Q8" t="s"/>
@@ -1502,41 +1596,45 @@
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>91</v>
+        <v>98</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5209</v>
       </c>
-      <c r="B9" t="s"/>
-      <c r="C9" t="s"/>
+      <c r="B9" t="n">
+        <v>178325</v>
+      </c>
+      <c r="C9" t="s">
+        <v>99</v>
+      </c>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F9" t="s">
-        <v>92</v>
+        <v>100</v>
       </c>
       <c r="G9" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H9" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I9" t="s">
-        <v>93</v>
+        <v>101</v>
       </c>
       <c r="J9" t="s">
-        <v>94</v>
+        <v>102</v>
       </c>
       <c r="K9" t="s">
-        <v>95</v>
+        <v>103</v>
       </c>
       <c r="L9" t="s">
-        <v>96</v>
+        <v>104</v>
       </c>
       <c r="M9" t="n">
         <v>2</v>
@@ -1565,50 +1663,54 @@
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>97</v>
+        <v>105</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5209</v>
       </c>
-      <c r="B10" t="s"/>
-      <c r="C10" t="s"/>
+      <c r="B10" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C10" t="s">
+        <v>106</v>
+      </c>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F10" t="s">
-        <v>98</v>
+        <v>107</v>
       </c>
       <c r="G10" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H10" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I10" t="s">
-        <v>99</v>
+        <v>108</v>
       </c>
       <c r="J10" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="K10" t="s">
-        <v>101</v>
+        <v>110</v>
       </c>
       <c r="L10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
       <c r="M10" t="n">
         <v>5</v>
       </c>
       <c r="N10" t="s">
-        <v>103</v>
+        <v>112</v>
       </c>
       <c r="O10" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P10" t="n">
         <v>5</v>
@@ -1632,50 +1734,54 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>102</v>
+        <v>111</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5209</v>
       </c>
-      <c r="B11" t="s"/>
-      <c r="C11" t="s"/>
+      <c r="B11" t="n">
+        <v>178326</v>
+      </c>
+      <c r="C11" t="s">
+        <v>114</v>
+      </c>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>115</v>
       </c>
       <c r="G11" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H11" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I11" t="s">
-        <v>106</v>
+        <v>116</v>
       </c>
       <c r="J11" t="s">
-        <v>107</v>
+        <v>117</v>
       </c>
       <c r="K11" t="s">
-        <v>108</v>
+        <v>118</v>
       </c>
       <c r="L11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
       <c r="M11" t="n">
         <v>3</v>
       </c>
       <c r="N11" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O11" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P11" t="n">
         <v>3</v>
@@ -1699,50 +1805,54 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>109</v>
+        <v>119</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5209</v>
       </c>
-      <c r="B12" t="s"/>
-      <c r="C12" t="s"/>
+      <c r="B12" t="n">
+        <v>178327</v>
+      </c>
+      <c r="C12" t="s">
+        <v>121</v>
+      </c>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F12" t="s">
-        <v>111</v>
+        <v>122</v>
       </c>
       <c r="G12" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H12" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I12" t="s">
-        <v>112</v>
+        <v>123</v>
       </c>
       <c r="J12" t="s">
-        <v>113</v>
+        <v>124</v>
       </c>
       <c r="K12" t="s">
-        <v>114</v>
+        <v>125</v>
       </c>
       <c r="L12" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="O12" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1766,35 +1876,39 @@
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
       <c r="Y12" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5209</v>
       </c>
-      <c r="B13" t="s"/>
-      <c r="C13" t="s"/>
+      <c r="B13" t="n">
+        <v>70551</v>
+      </c>
+      <c r="C13" t="s">
+        <v>106</v>
+      </c>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F13" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="G13" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H13" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I13" t="s">
-        <v>119</v>
+        <v>130</v>
       </c>
       <c r="J13" t="s">
-        <v>120</v>
+        <v>131</v>
       </c>
       <c r="K13" t="s"/>
       <c r="L13" t="s"/>
@@ -1802,10 +1916,10 @@
         <v>4</v>
       </c>
       <c r="N13" t="s">
-        <v>110</v>
+        <v>120</v>
       </c>
       <c r="O13" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P13" t="n">
         <v>3</v>
@@ -1826,51 +1940,52 @@
       <c r="V13" t="n">
         <v>0</v>
       </c>
-      <c r="W13" t="s"/>
-      <c r="X13" t="s"/>
-      <c r="Y13" t="s"/>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5209</v>
       </c>
-      <c r="B14" t="s"/>
-      <c r="C14" t="s"/>
+      <c r="B14" t="n">
+        <v>178328</v>
+      </c>
+      <c r="C14" t="s">
+        <v>132</v>
+      </c>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F14" t="s">
-        <v>121</v>
+        <v>133</v>
       </c>
       <c r="G14" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H14" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I14" t="s">
-        <v>122</v>
+        <v>134</v>
       </c>
       <c r="J14" t="s">
-        <v>123</v>
+        <v>135</v>
       </c>
       <c r="K14" t="s">
-        <v>124</v>
+        <v>136</v>
       </c>
       <c r="L14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
       <c r="M14" t="n">
         <v>3</v>
       </c>
       <c r="N14" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O14" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P14" t="n">
         <v>4</v>
@@ -1894,50 +2009,54 @@
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>125</v>
+        <v>137</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5209</v>
       </c>
-      <c r="B15" t="s"/>
-      <c r="C15" t="s"/>
+      <c r="B15" t="n">
+        <v>178329</v>
+      </c>
+      <c r="C15" t="s">
+        <v>139</v>
+      </c>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F15" t="s">
-        <v>127</v>
+        <v>140</v>
       </c>
       <c r="G15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H15" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>141</v>
       </c>
       <c r="J15" t="s">
-        <v>129</v>
+        <v>142</v>
       </c>
       <c r="K15" t="s">
-        <v>130</v>
+        <v>143</v>
       </c>
       <c r="L15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
       <c r="M15" t="n">
         <v>1</v>
       </c>
       <c r="N15" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O15" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P15" t="n">
         <v>1</v>
@@ -1961,50 +2080,54 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>131</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5209</v>
       </c>
-      <c r="B16" t="s"/>
-      <c r="C16" t="s"/>
+      <c r="B16" t="n">
+        <v>7</v>
+      </c>
+      <c r="C16" t="s">
+        <v>86</v>
+      </c>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F16" t="s">
-        <v>132</v>
+        <v>145</v>
       </c>
       <c r="G16" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I16" t="s">
-        <v>133</v>
+        <v>146</v>
       </c>
       <c r="J16" t="s">
-        <v>134</v>
+        <v>147</v>
       </c>
       <c r="K16" t="s">
-        <v>135</v>
+        <v>148</v>
       </c>
       <c r="L16" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
       <c r="M16" t="n">
         <v>5</v>
       </c>
       <c r="N16" t="s">
-        <v>126</v>
+        <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>137</v>
+        <v>150</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2028,50 +2151,54 @@
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
       <c r="Y16" t="s">
-        <v>136</v>
+        <v>149</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5209</v>
       </c>
-      <c r="B17" t="s"/>
-      <c r="C17" t="s"/>
+      <c r="B17" t="n">
+        <v>178330</v>
+      </c>
+      <c r="C17" t="s">
+        <v>151</v>
+      </c>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F17" t="s">
-        <v>138</v>
+        <v>152</v>
       </c>
       <c r="G17" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H17" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I17" t="s">
-        <v>139</v>
+        <v>153</v>
       </c>
       <c r="J17" t="s">
-        <v>140</v>
+        <v>154</v>
       </c>
       <c r="K17" t="s">
-        <v>141</v>
+        <v>155</v>
       </c>
       <c r="L17" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O17" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2095,50 +2222,54 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>142</v>
+        <v>156</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5209</v>
       </c>
-      <c r="B18" t="s"/>
-      <c r="C18" t="s"/>
+      <c r="B18" t="n">
+        <v>178331</v>
+      </c>
+      <c r="C18" t="s">
+        <v>158</v>
+      </c>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F18" t="s">
-        <v>144</v>
+        <v>159</v>
       </c>
       <c r="G18" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H18" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I18" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="J18" t="s">
-        <v>146</v>
+        <v>161</v>
       </c>
       <c r="K18" t="s">
-        <v>147</v>
+        <v>162</v>
       </c>
       <c r="L18" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
       <c r="M18" t="n">
         <v>5</v>
       </c>
       <c r="N18" t="s">
-        <v>149</v>
+        <v>164</v>
       </c>
       <c r="O18" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P18" t="n">
         <v>5</v>
@@ -2162,41 +2293,45 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>148</v>
+        <v>163</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5209</v>
       </c>
-      <c r="B19" t="s"/>
-      <c r="C19" t="s"/>
+      <c r="B19" t="n">
+        <v>178332</v>
+      </c>
+      <c r="C19" t="s">
+        <v>165</v>
+      </c>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F19" t="s">
-        <v>150</v>
+        <v>166</v>
       </c>
       <c r="G19" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H19" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I19" t="s">
-        <v>151</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>152</v>
+        <v>168</v>
       </c>
       <c r="K19" t="s">
-        <v>153</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="M19" t="n">
         <v>4</v>
@@ -2225,35 +2360,39 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>155</v>
+        <v>171</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5209</v>
       </c>
-      <c r="B20" t="s"/>
-      <c r="C20" t="s"/>
+      <c r="B20" t="n">
+        <v>178333</v>
+      </c>
+      <c r="C20" t="s">
+        <v>172</v>
+      </c>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F20" t="s">
-        <v>156</v>
+        <v>173</v>
       </c>
       <c r="G20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H20" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I20" t="s">
-        <v>157</v>
+        <v>174</v>
       </c>
       <c r="J20" t="s">
-        <v>158</v>
+        <v>175</v>
       </c>
       <c r="K20" t="s"/>
       <c r="L20" t="s"/>
@@ -2261,10 +2400,10 @@
         <v>2</v>
       </c>
       <c r="N20" t="s">
-        <v>159</v>
+        <v>176</v>
       </c>
       <c r="O20" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P20" t="n">
         <v>4</v>
@@ -2285,51 +2424,52 @@
       <c r="V20" t="n">
         <v>0</v>
       </c>
-      <c r="W20" t="s"/>
-      <c r="X20" t="s"/>
-      <c r="Y20" t="s"/>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5209</v>
       </c>
-      <c r="B21" t="s"/>
-      <c r="C21" t="s"/>
+      <c r="B21" t="n">
+        <v>178334</v>
+      </c>
+      <c r="C21" t="s">
+        <v>177</v>
+      </c>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F21" t="s">
-        <v>160</v>
+        <v>178</v>
       </c>
       <c r="G21" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H21" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I21" t="s">
-        <v>161</v>
+        <v>179</v>
       </c>
       <c r="J21" t="s">
-        <v>162</v>
+        <v>180</v>
       </c>
       <c r="K21" t="s">
-        <v>163</v>
+        <v>181</v>
       </c>
       <c r="L21" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
       <c r="M21" t="n">
         <v>2</v>
       </c>
       <c r="N21" t="s">
-        <v>143</v>
+        <v>157</v>
       </c>
       <c r="O21" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2353,50 +2493,54 @@
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
       <c r="Y21" t="s">
-        <v>164</v>
+        <v>182</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5209</v>
       </c>
-      <c r="B22" t="s"/>
-      <c r="C22" t="s"/>
+      <c r="B22" t="n">
+        <v>178335</v>
+      </c>
+      <c r="C22" t="s">
+        <v>183</v>
+      </c>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F22" t="s">
-        <v>165</v>
+        <v>184</v>
       </c>
       <c r="G22" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H22" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I22" t="s">
-        <v>166</v>
+        <v>185</v>
       </c>
       <c r="J22" t="s">
-        <v>167</v>
+        <v>186</v>
       </c>
       <c r="K22" t="s">
-        <v>168</v>
+        <v>187</v>
       </c>
       <c r="L22" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
       <c r="M22" t="n">
         <v>2</v>
       </c>
       <c r="N22" t="s">
-        <v>170</v>
+        <v>189</v>
       </c>
       <c r="O22" t="s">
-        <v>104</v>
+        <v>113</v>
       </c>
       <c r="P22" t="n">
         <v>3</v>
@@ -2420,50 +2564,54 @@
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
       <c r="Y22" t="s">
-        <v>169</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5209</v>
       </c>
-      <c r="B23" t="s"/>
-      <c r="C23" t="s"/>
+      <c r="B23" t="n">
+        <v>178336</v>
+      </c>
+      <c r="C23" t="s">
+        <v>190</v>
+      </c>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F23" t="s">
-        <v>171</v>
+        <v>191</v>
       </c>
       <c r="G23" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H23" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I23" t="s">
-        <v>172</v>
+        <v>192</v>
       </c>
       <c r="J23" t="s">
-        <v>173</v>
+        <v>193</v>
       </c>
       <c r="K23" t="s">
-        <v>174</v>
+        <v>194</v>
       </c>
       <c r="L23" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>176</v>
+        <v>196</v>
       </c>
       <c r="O23" t="s">
-        <v>66</v>
+        <v>69</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2487,50 +2635,54 @@
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
       <c r="Y23" t="s">
-        <v>175</v>
+        <v>195</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5209</v>
       </c>
-      <c r="B24" t="s"/>
-      <c r="C24" t="s"/>
+      <c r="B24" t="n">
+        <v>79389</v>
+      </c>
+      <c r="C24" t="s">
+        <v>197</v>
+      </c>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F24" t="s">
-        <v>177</v>
+        <v>198</v>
       </c>
       <c r="G24" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H24" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I24" t="s">
-        <v>178</v>
+        <v>199</v>
       </c>
       <c r="J24" t="s">
-        <v>179</v>
+        <v>200</v>
       </c>
       <c r="K24" t="s">
-        <v>180</v>
+        <v>201</v>
       </c>
       <c r="L24" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
       <c r="M24" t="n">
         <v>4</v>
       </c>
       <c r="N24" t="s">
-        <v>182</v>
+        <v>203</v>
       </c>
       <c r="O24" t="s">
-        <v>74</v>
+        <v>78</v>
       </c>
       <c r="P24" t="n">
         <v>5</v>
@@ -2554,41 +2706,45 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>181</v>
+        <v>202</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5209</v>
       </c>
-      <c r="B25" t="s"/>
-      <c r="C25" t="s"/>
+      <c r="B25" t="n">
+        <v>178337</v>
+      </c>
+      <c r="C25" t="s">
+        <v>204</v>
+      </c>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="F25" t="s">
-        <v>183</v>
+        <v>205</v>
       </c>
       <c r="G25" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="H25" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="I25" t="s">
-        <v>184</v>
+        <v>206</v>
       </c>
       <c r="J25" t="s">
-        <v>185</v>
+        <v>207</v>
       </c>
       <c r="K25" t="s">
-        <v>186</v>
+        <v>208</v>
       </c>
       <c r="L25" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
       <c r="M25" t="n">
         <v>3</v>
@@ -2617,7 +2773,7 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
-        <v>187</v>
+        <v>209</v>
       </c>
     </row>
   </sheetData>

--- a/data/hotels_by_city/Dallas/Dallas_shard_719.xlsx
+++ b/data/hotels_by_city/Dallas/Dallas_shard_719.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="review_info" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="hotel_info" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="review_info" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="210">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="267">
   <si>
     <t>STR#</t>
   </si>
@@ -150,21 +150,60 @@
     <t>response_text</t>
   </si>
   <si>
-    <t>Jojo681</t>
-  </si>
-  <si>
-    <t>06/15/2018</t>
+    <t>08/28/2018</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r460433988-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>56882</t>
+  </si>
+  <si>
+    <t>98843</t>
+  </si>
+  <si>
+    <t>460433988</t>
+  </si>
+  <si>
+    <t>02/16/2017</t>
+  </si>
+  <si>
+    <t>Brent weiser</t>
+  </si>
+  <si>
+    <t>Staying here from last 20 days, Having very good experience at this place, great staff front desk person very polite., service, clean, like this place .good locatin &amp; safe place to stay in budget price.</t>
+  </si>
+  <si>
+    <t>February 2017</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled on business</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r443864536-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>443864536</t>
+  </si>
+  <si>
+    <t>12/12/2016</t>
+  </si>
+  <si>
+    <t>Not worth the money</t>
+  </si>
+  <si>
+    <t>When I checked into the room, the lights had to be plugged in. The room was still dirty i.e. hair on the walls of the bath tub and dirt on the floor. The phone in the room did not work and the faucet in the bathroom sink did not have water running from it. There were beetles and spiders. The security latch was broken and when these issues were addressed with the manager, he just said that I should have reported all of these issues immediately and he would have given me a room on the second floor but at a higher rate.</t>
+  </si>
+  <si>
+    <t>December 2016</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled solo</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r434504468-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
-    <t>56882</t>
-  </si>
-  <si>
-    <t>98843</t>
-  </si>
-  <si>
     <t>434504468</t>
   </si>
   <si>
@@ -183,9 +222,6 @@
     <t xml:space="preserve"> traveled as a couple</t>
   </si>
   <si>
-    <t>I_LOVED_CUBA</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r344650979-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -204,9 +240,6 @@
     <t>January 2016</t>
   </si>
   <si>
-    <t>Bluesbabe23</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r304595167-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -225,13 +258,55 @@
     <t>July 2015</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled on business</t>
-  </si>
-  <si>
     <t>I stayed at this Studio 6 for 10 days ending July 11, 2015.  It was an extended business trip, fully paid before I arrived.  This is the worst hotel I have ever been in and I have stayed at budget hotels all over the country.  The sheets were stained and thin, the towels were not clean ( I used my own).  The carpet was unbearably nasty  (Keep your shoes on), but the worst part was the roaches.  Don't bring your stuff inside if you have to be at this facility.  Roaches overran the traps I purchased and set out.  If I was still in Fort Worth, I believe I would have to call the health department.  Oh, and the water was shut off for two days due to a water line break.  Please stay away from this place!More</t>
   </si>
   <si>
-    <t>Ajohnson0527</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r297059813-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>297059813</t>
+  </si>
+  <si>
+    <t>08/08/2015</t>
+  </si>
+  <si>
+    <t>Danger Danger Danger...seriously! DANGER!</t>
+  </si>
+  <si>
+    <t>The Motel 6 chain has seen the last of my business. You can stay in a clean, friendly and decent if sometimes too small room one night, and the next night the standards drop so low as to actually scare you. This property in White Settlement Texas just outside of Fort Worth is truly the worst hotel I've ever stayed at. Not just the worst Motel 6 but the absolutely worst in my 49 years of life. As a truck driver for almost 25 years I have had the opportunity to sleep in some seriously questionable places but this place is so far beyond even the oldest small town desert drive ups I've stayed in. The afternoon check in at 3:00pm greeted me with an absent hotel front desk clerk: she was busy in the back of the property shucking and street talking with the local pimps and gang bangers. With a cigarette hanging out of her mouth she was cussing about somebody being a "ho" when I rounded a corner searching for her due to locked lobby doors....when she finally unlocked the lobby I was greeted with a room on the 3rd floor in the middle of the building....when I had requested a ground floor unit for my disabled girlfriend. At 3pm it was obvious that the ground floor units were available and even the reservations agent had assured me that the property would hold a ground floor room...The Motel 6 chain has seen the last of my business. You can stay in a clean, friendly and decent if sometimes too small room one night, and the next night the standards drop so low as to actually scare you. This property in White Settlement Texas just outside of Fort Worth is truly the worst hotel I've ever stayed at. Not just the worst Motel 6 but the absolutely worst in my 49 years of life. As a truck driver for almost 25 years I have had the opportunity to sleep in some seriously questionable places but this place is so far beyond even the oldest small town desert drive ups I've stayed in. The afternoon check in at 3:00pm greeted me with an absent hotel front desk clerk: she was busy in the back of the property shucking and street talking with the local pimps and gang bangers. With a cigarette hanging out of her mouth she was cussing about somebody being a "ho" when I rounded a corner searching for her due to locked lobby doors....when she finally unlocked the lobby I was greeted with a room on the 3rd floor in the middle of the building....when I had requested a ground floor unit for my disabled girlfriend. At 3pm it was obvious that the ground floor units were available and even the reservations agent had assured me that the property would hold a ground floor room for me. Instead we had to compete with local gang members who call the dilapidated premise home for both stair and elevator access. The local medicaid recipients who were recovering from an obvious recent hospital stay who were seemed to be there on government contract payments were kind enough to move their beers and stand up and move over as we ascended the stairs to reach our rooms....a small army of  Spanish speaking guests also were kind enough to provide COMSTANT stares  as they lined the third floor railing in the afternoon sun and watched our every move as we unloaded our car. Other guests were so nice as to reveal the color, brand and style of their underwear through their display of said undergarments whilst their pants waisted their upper thighs. The local hookers were also considerate in their comings and goings and kept to themselves for the most part. The room while there...on the third floor in the middle of the building, was nasty, dirty, missing flatware, had no glasses, and had an air conditioner that was so dirty and old that it took until midnight to cool the room to a comfortable temperature during our early August stay. This hotel is truly populated with derelicts, druggers, sad pathetic welfare cases and all manner of prostitutes, dealers and grifters.  Be carefulThe pictures show tattoo ink stains, missing flatware, and a fridge that opens on the wrong side...The unit is run down, sickening and nasty in its present condition. I have NO idea how it can still have its Motel 6 Franchise. I can only assume that Motel 6 is much more interested in franchise fees than in retaining customers. MoreShow less</t>
+  </si>
+  <si>
+    <t>August 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with family</t>
+  </si>
+  <si>
+    <t>The Motel 6 chain has seen the last of my business. You can stay in a clean, friendly and decent if sometimes too small room one night, and the next night the standards drop so low as to actually scare you. This property in White Settlement Texas just outside of Fort Worth is truly the worst hotel I've ever stayed at. Not just the worst Motel 6 but the absolutely worst in my 49 years of life. As a truck driver for almost 25 years I have had the opportunity to sleep in some seriously questionable places but this place is so far beyond even the oldest small town desert drive ups I've stayed in. The afternoon check in at 3:00pm greeted me with an absent hotel front desk clerk: she was busy in the back of the property shucking and street talking with the local pimps and gang bangers. With a cigarette hanging out of her mouth she was cussing about somebody being a "ho" when I rounded a corner searching for her due to locked lobby doors....when she finally unlocked the lobby I was greeted with a room on the 3rd floor in the middle of the building....when I had requested a ground floor unit for my disabled girlfriend. At 3pm it was obvious that the ground floor units were available and even the reservations agent had assured me that the property would hold a ground floor room...The Motel 6 chain has seen the last of my business. You can stay in a clean, friendly and decent if sometimes too small room one night, and the next night the standards drop so low as to actually scare you. This property in White Settlement Texas just outside of Fort Worth is truly the worst hotel I've ever stayed at. Not just the worst Motel 6 but the absolutely worst in my 49 years of life. As a truck driver for almost 25 years I have had the opportunity to sleep in some seriously questionable places but this place is so far beyond even the oldest small town desert drive ups I've stayed in. The afternoon check in at 3:00pm greeted me with an absent hotel front desk clerk: she was busy in the back of the property shucking and street talking with the local pimps and gang bangers. With a cigarette hanging out of her mouth she was cussing about somebody being a "ho" when I rounded a corner searching for her due to locked lobby doors....when she finally unlocked the lobby I was greeted with a room on the 3rd floor in the middle of the building....when I had requested a ground floor unit for my disabled girlfriend. At 3pm it was obvious that the ground floor units were available and even the reservations agent had assured me that the property would hold a ground floor room for me. Instead we had to compete with local gang members who call the dilapidated premise home for both stair and elevator access. The local medicaid recipients who were recovering from an obvious recent hospital stay who were seemed to be there on government contract payments were kind enough to move their beers and stand up and move over as we ascended the stairs to reach our rooms....a small army of  Spanish speaking guests also were kind enough to provide COMSTANT stares  as they lined the third floor railing in the afternoon sun and watched our every move as we unloaded our car. Other guests were so nice as to reveal the color, brand and style of their underwear through their display of said undergarments whilst their pants waisted their upper thighs. The local hookers were also considerate in their comings and goings and kept to themselves for the most part. The room while there...on the third floor in the middle of the building, was nasty, dirty, missing flatware, had no glasses, and had an air conditioner that was so dirty and old that it took until midnight to cool the room to a comfortable temperature during our early August stay. This hotel is truly populated with derelicts, druggers, sad pathetic welfare cases and all manner of prostitutes, dealers and grifters.  Be carefulThe pictures show tattoo ink stains, missing flatware, and a fridge that opens on the wrong side...The unit is run down, sickening and nasty in its present condition. I have NO idea how it can still have its Motel 6 Franchise. I can only assume that Motel 6 is much more interested in franchise fees than in retaining customers. More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r270655914-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>270655914</t>
+  </si>
+  <si>
+    <t>05/07/2015</t>
+  </si>
+  <si>
+    <t>Don't bother</t>
+  </si>
+  <si>
+    <t>Checked in about noonish, went to our room, was still dirty (full ashtrays, beer bottles everywhere, trashed from night before, never cleaned). Went back to desk, got another room, this room was "clean" but no ashtrays, no towels, lights, TV, clock, phone didn't work until we played with the fusebox &amp; plugged stuff in. Took a quick shower, slept for a couple hours &amp; left for better accommodations &amp; was still charged full price for night (even though left by 4pm), know the room was maybe cleaned, maybe not &amp; re-rented. Were stains on the sheets, rude front desk (really nice &amp; tried to be helpful, but English wasn't good, cleaning lady). Wouldn't stay there again for free. Go somewhere else.MoreShow less</t>
+  </si>
+  <si>
+    <t>April 2015</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> traveled with friends</t>
+  </si>
+  <si>
+    <t>Checked in about noonish, went to our room, was still dirty (full ashtrays, beer bottles everywhere, trashed from night before, never cleaned). Went back to desk, got another room, this room was "clean" but no ashtrays, no towels, lights, TV, clock, phone didn't work until we played with the fusebox &amp; plugged stuff in. Took a quick shower, slept for a couple hours &amp; left for better accommodations &amp; was still charged full price for night (even though left by 4pm), know the room was maybe cleaned, maybe not &amp; re-rented. Were stains on the sheets, rude front desk (really nice &amp; tried to be helpful, but English wasn't good, cleaning lady). Wouldn't stay there again for free. Go somewhere else.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r234497869-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
@@ -252,12 +327,6 @@
     <t>October 2014</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with family</t>
-  </si>
-  <si>
-    <t>TravelinEm1</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r233186399-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -276,9 +345,6 @@
     <t>Had stayed at this hotel 10-15 years ago when it was a new-ish La Quinta, and it was clean and perfectly fine for a short weekend visit. On this trip, it was a fallback after TWO "guaranteed" online bookings (one on bookings.com and the other on Travelocity -- argh) were denied at oversold 3-star properties over a local football game weekend. A clerk at the second oversold hotel (a nearby Fairfield Inn and Suites) graciously called around and found availability at this place for my 80-ish parents, and I joined there on the second night prior to a family funeral. It was awful, even having had appropriate expectations for a 2-star budget stay. Without painful elaboration, I'll just say that it was in disrepair, was dirty, and appears to be an "extended stay" for people who are experiencing unfortunate economic circumstances. If I had arrived there as a woman staying alone, I would not have set foot in the place. At the very least, the owners of this property need to make proper repairs, clean it thoroughly, and invest in new sheets and towels.More</t>
   </si>
   <si>
-    <t>A TripAdvisor Member</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r169743587-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -297,7 +363,31 @@
     <t>June 2013</t>
   </si>
   <si>
-    <t>Toby E</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r166749219-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>166749219</t>
+  </si>
+  <si>
+    <t>07/08/2013</t>
+  </si>
+  <si>
+    <t>July 2013</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r164066762-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>164066762</t>
+  </si>
+  <si>
+    <t>06/15/2013</t>
+  </si>
+  <si>
+    <t>Don't stay here!</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Our first room had no bedding and trash everywhere. Staff was quick and helpful to change us to another room, however that one had carpet lifted from the floor and pulling away from the wall. Bathroom was dirty. I barely slept I was so appalled but it was too late to find another dog friendly hotel. Breakfast was a huge disappointment could not leave fast enough. However the staff did not charge us for our stay once I told them which was surprising. All in all I'd pay the extra for a better hotel. </t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r162791333-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
@@ -315,9 +405,6 @@
     <t>This is my 3rd visit to Ft Worth as well as my 3rd stay at this hotel! Very friendly staff! Great waffle breakfasts! Fully stocked breakfast area and nice clean rooms for the money! If your in the area and need a nice quiet place to stay that's clean this is your place! I will be back!</t>
   </si>
   <si>
-    <t>Bbarre</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r162255147-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -336,9 +423,6 @@
     <t>You get what you pay for, I guess. Do you need to have the pass swipes using your hotel key to work so you can go into the lobby at 0300 to work?  They don't. Probably too dangerous a location to enable that feature. Do you need a modicum of a "business center" so you can print boarding passes. Nope. Not on the bare bones La Quinta experience. Do you want to have the desk guy print out a receipt to see what you might have been charged? Nope "you'll have to get it from Expedia where you booked it". Really? I mean, really?  Like another reviewer said - the is either the oldest La Quinta on the planet or a reclamation project from another chain. Either way, I would not stay here again if the room was free.More</t>
   </si>
   <si>
-    <t>A La Quinta traveler</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r158758779-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -348,19 +432,40 @@
     <t>04/25/2013</t>
   </si>
   <si>
-    <t>A Pleasant Experience</t>
-  </si>
-  <si>
-    <t>I had read some doubtful reviews of this hotel but I was pleasantly surprised when I arrived. It provided comfort,cleanliness,convenience, and a good price point. On this trip I didn't need a gym- I needed a comfortable place to sleep. Thank you Bob</t>
-  </si>
-  <si>
     <t>April 2013</t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled solo</t>
-  </si>
-  <si>
-    <t>smithfamlyTX</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r157203590-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>157203590</t>
+  </si>
+  <si>
+    <t>04/09/2013</t>
+  </si>
+  <si>
+    <t>GREAT STAY</t>
+  </si>
+  <si>
+    <t>The people at the hotel were very respectful and helpful. I reserved 4 rooms for this stay and everything was in order when I arrived. Thank you so much for the enjoyable stay but really didn't expect nothing less for LaQuinta</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r156585860-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>156585860</t>
+  </si>
+  <si>
+    <t>04/04/2013</t>
+  </si>
+  <si>
+    <t>Fine  stay</t>
+  </si>
+  <si>
+    <t>We stayed here Easter weekend while visiting friends in the Fort Worth area. Check in and check out was efficient and friendly. We found our partially refurbished room clean and in good repair.  I say partially refurbished because while it appeared to have a fresh coat of paint, new moldings and new mirror and counter area the bathtub was peeling and had not been replaced. I was concerned about noise being so close to the highway but our room at the back overlooking the pool was not noisy at all.  Complimentary breakfast is served in the newly refurbished reception area and is very basic.  Typical motel fare.</t>
+  </si>
+  <si>
+    <t>March 2013</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r155700147-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
@@ -378,12 +483,6 @@
     <t>I booked this La Quinta based on price and reviews from other writers.  The staff at check-in and out was great.  Quality of breakfast was good.  Location was convenient to highway and an I-Hop (which gives a discount to hotel guests), but otherwise nothing else close by.  The rooms need a lot of updating.  Most La Quinta's I've stayed in have been very nice with updated furnishings.  This one was like La Quinta bought it from another chain, slapped on a new roof and some paint and called it done.  It was clean and beds were comfortable, but needs more work it make it worthy of it's name.</t>
   </si>
   <si>
-    <t>March 2013</t>
-  </si>
-  <si>
-    <t>blueovalpony</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r155265532-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -414,7 +513,25 @@
     <t>03/11/2013</t>
   </si>
   <si>
-    <t>jerryj46307</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r146563547-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>146563547</t>
+  </si>
+  <si>
+    <t>12/01/2012</t>
+  </si>
+  <si>
+    <t>November 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r146422559-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>146422559</t>
+  </si>
+  <si>
+    <t>11/29/2012</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r145283147-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
@@ -435,9 +552,6 @@
     <t>October 2012</t>
   </si>
   <si>
-    <t>robertbK6956ZG</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r143621079-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -468,10 +582,38 @@
     <t xml:space="preserve">We stayed in Fort Worth due to the tracking event being there.  The motel was better than expected.  Clean rooms, friendly staff, close to restaurants and our event...and dogs are welcome!  It was driving distance to the main dog show held in Belton and the La Quinta there was the  host hotel for the event.  For me it was an excellent lower end inn.  </t>
   </si>
   <si>
-    <t xml:space="preserve"> traveled with friends</t>
-  </si>
-  <si>
-    <t>brookfieldwi</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r141907843-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>141907843</t>
+  </si>
+  <si>
+    <t>10/03/2012</t>
+  </si>
+  <si>
+    <t>September 2012</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r140407998-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>140407998</t>
+  </si>
+  <si>
+    <t>09/16/2012</t>
+  </si>
+  <si>
+    <t>A Moderately Priced Stay at an Older La Quinta Inn</t>
+  </si>
+  <si>
+    <t>The La Quinta Inn Fort Worth West Medical District is located near the intersection of I-30 and Loop 820 just as you approach Fort Worth from Abilene and points west. It is conveniently located for visitors entering the DFW Metroplex and reasonably priced ($65.00 to $70.00 per night for two guests). The excellent location makes it a very suitable site for guests who will stay at an older La Quinta with fewer amenities and only an outdoor entrance to their room for a lower nightly rate. For guests willing to stay at a "Very Good" La Quinta Inn rather than an "Excellent" one and pay only a "moderate rate" for their room, this La Quinta is certainly an option to consider.
+My wife and I found our room to be small, especially the bathroom. The room was clean, but in need of upodating. Both beds were comfortable and the room had a good television set, but with a smaller screen than most hotel/motel rooms I have stayed in. I found the staff to be most helpful and greatly appreciated the work of the "night clerk" who took me all around the facility at 1:00 A.M.in search of a drink machine that was working after I lost my change in a machine that was very close to our room.
+For a La Quinta "Bright Side Breakfast," I would rate this Inn's breakfast as "Below Average" and more of a "continental breakfast"...The La Quinta Inn Fort Worth West Medical District is located near the intersection of I-30 and Loop 820 just as you approach Fort Worth from Abilene and points west. It is conveniently located for visitors entering the DFW Metroplex and reasonably priced ($65.00 to $70.00 per night for two guests). The excellent location makes it a very suitable site for guests who will stay at an older La Quinta with fewer amenities and only an outdoor entrance to their room for a lower nightly rate. For guests willing to stay at a "Very Good" La Quinta Inn rather than an "Excellent" one and pay only a "moderate rate" for their room, this La Quinta is certainly an option to consider.My wife and I found our room to be small, especially the bathroom. The room was clean, but in need of upodating. Both beds were comfortable and the room had a good television set, but with a smaller screen than most hotel/motel rooms I have stayed in. I found the staff to be most helpful and greatly appreciated the work of the "night clerk" who took me all around the facility at 1:00 A.M.in search of a drink machine that was working after I lost my change in a machine that was very close to our room.For a La Quinta "Bright Side Breakfast," I would rate this Inn's breakfast as "Below Average" and more of a "continental breakfast" than a "full breakfast." Also, it was served in a small area that I consider to be part of the lobby, rather than the typical dining facility. Throughout their stay, as a special bonus, guests receive a 20% discount on all meals purchased at an International House of Pancakes Restaurant that is a very short walk from the Inn. Finally, the Inn had good wireless internet service, but there was not a central "Business Center" with computer access for guests.MoreShow less</t>
+  </si>
+  <si>
+    <t>The La Quinta Inn Fort Worth West Medical District is located near the intersection of I-30 and Loop 820 just as you approach Fort Worth from Abilene and points west. It is conveniently located for visitors entering the DFW Metroplex and reasonably priced ($65.00 to $70.00 per night for two guests). The excellent location makes it a very suitable site for guests who will stay at an older La Quinta with fewer amenities and only an outdoor entrance to their room for a lower nightly rate. For guests willing to stay at a "Very Good" La Quinta Inn rather than an "Excellent" one and pay only a "moderate rate" for their room, this La Quinta is certainly an option to consider.
+My wife and I found our room to be small, especially the bathroom. The room was clean, but in need of upodating. Both beds were comfortable and the room had a good television set, but with a smaller screen than most hotel/motel rooms I have stayed in. I found the staff to be most helpful and greatly appreciated the work of the "night clerk" who took me all around the facility at 1:00 A.M.in search of a drink machine that was working after I lost my change in a machine that was very close to our room.
+For a La Quinta "Bright Side Breakfast," I would rate this Inn's breakfast as "Below Average" and more of a "continental breakfast"...The La Quinta Inn Fort Worth West Medical District is located near the intersection of I-30 and Loop 820 just as you approach Fort Worth from Abilene and points west. It is conveniently located for visitors entering the DFW Metroplex and reasonably priced ($65.00 to $70.00 per night for two guests). The excellent location makes it a very suitable site for guests who will stay at an older La Quinta with fewer amenities and only an outdoor entrance to their room for a lower nightly rate. For guests willing to stay at a "Very Good" La Quinta Inn rather than an "Excellent" one and pay only a "moderate rate" for their room, this La Quinta is certainly an option to consider.My wife and I found our room to be small, especially the bathroom. The room was clean, but in need of upodating. Both beds were comfortable and the room had a good television set, but with a smaller screen than most hotel/motel rooms I have stayed in. I found the staff to be most helpful and greatly appreciated the work of the "night clerk" who took me all around the facility at 1:00 A.M.in search of a drink machine that was working after I lost my change in a machine that was very close to our room.For a La Quinta "Bright Side Breakfast," I would rate this Inn's breakfast as "Below Average" and more of a "continental breakfast" than a "full breakfast." Also, it was served in a small area that I consider to be part of the lobby, rather than the typical dining facility. Throughout their stay, as a special bonus, guests receive a 20% discount on all meals purchased at an International House of Pancakes Restaurant that is a very short walk from the Inn. Finally, the Inn had good wireless internet service, but there was not a central "Business Center" with computer access for guests.More</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r137622378-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
@@ -492,9 +634,6 @@
     <t>April 2012</t>
   </si>
   <si>
-    <t>sate2290</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r135144572-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -504,18 +643,9 @@
     <t>07/23/2012</t>
   </si>
   <si>
-    <t>Great</t>
-  </si>
-  <si>
-    <t>Stayed here after driving all day.Very ciean .Best of all air conditioning was very cold.Will stay here next trip.</t>
-  </si>
-  <si>
     <t>July 2012</t>
   </si>
   <si>
-    <t>Jhand2</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r134839031-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -534,7 +664,40 @@
     <t>This is an older La Quinta.  The bed in the room was very soft and easy to sleep on.  The bathroom was very tiny, but we survived.The staff did a great job at keeping my room and the entire facility clean; however, this hotel needs some renevations done.  I think with some little work, this hotel will be up to the standards to all the other wonderful La Quintas that I have stayed in.I do recommend that curtains or blinds be placed in the breakfast area.  The morning sun can be bright and it shines right through those windows.The staff was very friendly at this location.When I return to Fort Worth again, I will consider staying here.More</t>
   </si>
   <si>
-    <t>PegSimmons</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r134560982-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>134560982</t>
+  </si>
+  <si>
+    <t>07/16/2012</t>
+  </si>
+  <si>
+    <t>"A Very Good Hotel Experience"</t>
+  </si>
+  <si>
+    <t>Spent 5 days here and had a very good experience--the room was clean, good A/C, plenty of hot water, good wireless internet, the staff was friendly and cooperative, and housekeeping services did a good job (since I'm allergic to dust, I check!). As requested, I had a king-sized bed and a small refrigerator and microwave; the room also included a recliner next to the air conditioner! The continental breakfast included bagels, hard boiled eggs, fresh fruit and waffles. Yes, it's next to I-30 so there's traffic noise; yes, you have to enter through the I-HOP parking lot; yes, I had to walk up a flight of stairs to get to my outside-entrance second-floor room; but no, I did not feel at all threatened by the neighborhood and I was a woman traveling alone. Many good restaurants within a few miles.  Would I stay here again? Yes!MoreShow less</t>
+  </si>
+  <si>
+    <t>June 2012</t>
+  </si>
+  <si>
+    <t>Spent 5 days here and had a very good experience--the room was clean, good A/C, plenty of hot water, good wireless internet, the staff was friendly and cooperative, and housekeeping services did a good job (since I'm allergic to dust, I check!). As requested, I had a king-sized bed and a small refrigerator and microwave; the room also included a recliner next to the air conditioner! The continental breakfast included bagels, hard boiled eggs, fresh fruit and waffles. Yes, it's next to I-30 so there's traffic noise; yes, you have to enter through the I-HOP parking lot; yes, I had to walk up a flight of stairs to get to my outside-entrance second-floor room; but no, I did not feel at all threatened by the neighborhood and I was a woman traveling alone. Many good restaurants within a few miles.  Would I stay here again? Yes!More</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r132364380-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>132364380</t>
+  </si>
+  <si>
+    <t>06/20/2012</t>
+  </si>
+  <si>
+    <t>NIGHTMARE!!</t>
+  </si>
+  <si>
+    <t>Dirty, Ghetto, Loud and the staff stained shirts, not well groomed and rude.Did not get the room promised after reserving it! Could of stayed at an equally gross hotel for two nights for what we paid here!Should of stayed at their Lake Worth location!!!!!!!!!!!!!!!!!!!!</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r131710321-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
@@ -546,12 +709,6 @@
     <t>06/10/2012</t>
   </si>
   <si>
-    <t>June 2012</t>
-  </si>
-  <si>
-    <t>HummerBob</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r128937296-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -567,9 +724,6 @@
     <t>La Quinta used to be on my "safe" list, but two bad experiences separated by half the country tell me this is a brand that has changed hands or decided to change it's target demographic. Inconvenient and untimely maid service, bleh rooms and terrible internet both here and in San Jose have taken La Quinta off my list.  It was next to a 24- hour pancake house and close to the freeway.</t>
   </si>
   <si>
-    <t>mssusanp</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r126367548-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -579,16 +733,43 @@
     <t>03/19/2012</t>
   </si>
   <si>
-    <t>Tips for improvement</t>
-  </si>
-  <si>
-    <t>This LQ not of the quality of others. The exterior needed updating. I did not feel safe, there was a group of men pushing/shoving and making noise in the parking lot during the night. The only ice machine that worked was near the lobby &amp; upstairs. The staff was friendly.</t>
-  </si>
-  <si>
     <t>March 2012</t>
   </si>
   <si>
-    <t>BitsyJoe</t>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r121574140-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>121574140</t>
+  </si>
+  <si>
+    <t>12/09/2011</t>
+  </si>
+  <si>
+    <t>They are working on it</t>
+  </si>
+  <si>
+    <t>The first room I was in started leaking water from the bathroom roof.  The staff was super helpful and immediately moved me to another room.  The second room's bathroom's ligth did not work.  When I went to check the light, I fould the light fixture's cover was full of water so now I know why the light did not work.  Again the staff immediately offered me another room.   I am sitll there and debating whether or not if I should move again. Kudos to the staff as they are extremely nice, attentive and move quickly.  The hotel's condition at this point needs to be addressed.</t>
+  </si>
+  <si>
+    <t>December 2011</t>
+  </si>
+  <si>
+    <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r120001813-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
+  </si>
+  <si>
+    <t>120001813</t>
+  </si>
+  <si>
+    <t>10/31/2011</t>
+  </si>
+  <si>
+    <t>Will Be Back</t>
+  </si>
+  <si>
+    <t>Had a state conference here and the rooms were clean and the staff very helpful. Good size meeting rooms and easy to find location off freeway.</t>
+  </si>
+  <si>
+    <t>August 2011</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r108075142-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
@@ -609,9 +790,6 @@
     <t>February 2011</t>
   </si>
   <si>
-    <t>lepapillion</t>
-  </si>
-  <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r72088873-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
   </si>
   <si>
@@ -628,9 +806,6 @@
   </si>
   <si>
     <t>July 2010</t>
-  </si>
-  <si>
-    <t>travelingwoman72</t>
   </si>
   <si>
     <t>https://www.tripadvisor.com/ShowUserReviews-g56882-d98843-r7666198-Studio_6_Fort_Worth_West_Medical_Center-White_Settlement_Texas.html</t>
@@ -1150,47 +1325,43 @@
       <c r="A2" t="n">
         <v>5209</v>
       </c>
-      <c r="B2" t="n">
-        <v>178320</v>
-      </c>
-      <c r="C2" t="s">
-        <v>44</v>
-      </c>
+      <c r="B2" t="s"/>
+      <c r="C2" t="s"/>
       <c r="D2" t="n">
         <v>1</v>
       </c>
       <c r="E2" t="s">
+        <v>44</v>
+      </c>
+      <c r="F2" t="s">
         <v>45</v>
       </c>
-      <c r="F2" t="s">
-        <v>46</v>
-      </c>
       <c r="G2" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H2" t="s">
+        <v>47</v>
+      </c>
+      <c r="I2" t="s">
         <v>48</v>
       </c>
-      <c r="I2" t="s">
+      <c r="J2" t="s">
         <v>49</v>
       </c>
-      <c r="J2" t="s">
+      <c r="K2" t="s">
         <v>50</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>51</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="n">
+        <v>4</v>
+      </c>
+      <c r="N2" t="s">
         <v>52</v>
       </c>
-      <c r="M2" t="n">
-        <v>4</v>
-      </c>
-      <c r="N2" t="s">
+      <c r="O2" t="s">
         <v>53</v>
-      </c>
-      <c r="O2" t="s">
-        <v>54</v>
       </c>
       <c r="P2" t="s"/>
       <c r="Q2" t="s"/>
@@ -1204,66 +1375,62 @@
       <c r="W2" t="s"/>
       <c r="X2" t="s"/>
       <c r="Y2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
         <v>5209</v>
       </c>
-      <c r="B3" t="n">
-        <v>178321</v>
-      </c>
-      <c r="C3" t="s">
-        <v>55</v>
-      </c>
+      <c r="B3" t="s"/>
+      <c r="C3" t="s"/>
       <c r="D3" t="n">
         <v>2</v>
       </c>
       <c r="E3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" t="s">
+        <v>54</v>
+      </c>
+      <c r="G3" t="s">
+        <v>46</v>
+      </c>
+      <c r="H3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I3" t="s">
+        <v>55</v>
+      </c>
+      <c r="J3" t="s">
         <v>56</v>
       </c>
-      <c r="G3" t="s">
-        <v>47</v>
-      </c>
-      <c r="H3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I3" t="s">
+      <c r="K3" t="s">
         <v>57</v>
       </c>
-      <c r="J3" t="s">
+      <c r="L3" t="s">
         <v>58</v>
-      </c>
-      <c r="K3" t="s">
-        <v>59</v>
-      </c>
-      <c r="L3" t="s">
-        <v>60</v>
       </c>
       <c r="M3" t="n">
         <v>1</v>
       </c>
       <c r="N3" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="O3" t="s">
-        <v>54</v>
-      </c>
-      <c r="P3" t="s"/>
+        <v>60</v>
+      </c>
+      <c r="P3" t="n">
+        <v>1</v>
+      </c>
       <c r="Q3" t="n">
         <v>1</v>
       </c>
-      <c r="R3" t="n">
-        <v>4</v>
-      </c>
+      <c r="R3" t="s"/>
       <c r="S3" t="s"/>
       <c r="T3" t="s"/>
       <c r="U3" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -1271,184 +1438,172 @@
       <c r="W3" t="s"/>
       <c r="X3" t="s"/>
       <c r="Y3" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
         <v>5209</v>
       </c>
-      <c r="B4" t="n">
-        <v>178322</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B4" t="s"/>
+      <c r="C4" t="s"/>
+      <c r="D4" t="n">
+        <v>3</v>
+      </c>
+      <c r="E4" t="s">
+        <v>44</v>
+      </c>
+      <c r="F4" t="s">
+        <v>61</v>
+      </c>
+      <c r="G4" t="s">
+        <v>46</v>
+      </c>
+      <c r="H4" t="s">
+        <v>47</v>
+      </c>
+      <c r="I4" t="s">
         <v>62</v>
       </c>
-      <c r="D4" t="n">
-        <v>3</v>
-      </c>
-      <c r="E4" t="s">
-        <v>45</v>
-      </c>
-      <c r="F4" t="s">
+      <c r="J4" t="s">
         <v>63</v>
       </c>
-      <c r="G4" t="s">
-        <v>47</v>
-      </c>
-      <c r="H4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I4" t="s">
+      <c r="K4" t="s">
         <v>64</v>
       </c>
-      <c r="J4" t="s">
+      <c r="L4" t="s">
         <v>65</v>
       </c>
-      <c r="K4" t="s">
+      <c r="M4" t="n">
+        <v>4</v>
+      </c>
+      <c r="N4" t="s">
         <v>66</v>
       </c>
-      <c r="L4" t="s">
+      <c r="O4" t="s">
         <v>67</v>
-      </c>
-      <c r="M4" t="n">
-        <v>1</v>
-      </c>
-      <c r="N4" t="s">
-        <v>68</v>
-      </c>
-      <c r="O4" t="s">
-        <v>69</v>
       </c>
       <c r="P4" t="s"/>
       <c r="Q4" t="s"/>
       <c r="R4" t="s"/>
-      <c r="S4" t="n">
-        <v>1</v>
-      </c>
+      <c r="S4" t="s"/>
       <c r="T4" t="s"/>
-      <c r="U4" t="n">
-        <v>1</v>
-      </c>
+      <c r="U4" t="s"/>
       <c r="V4" t="n">
         <v>0</v>
       </c>
       <c r="W4" t="s"/>
       <c r="X4" t="s"/>
       <c r="Y4" t="s">
-        <v>70</v>
+        <v>65</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
         <v>5209</v>
       </c>
-      <c r="B5" t="n">
-        <v>70865</v>
-      </c>
-      <c r="C5" t="s">
+      <c r="B5" t="s"/>
+      <c r="C5" t="s"/>
+      <c r="D5" t="n">
+        <v>4</v>
+      </c>
+      <c r="E5" t="s">
+        <v>44</v>
+      </c>
+      <c r="F5" t="s">
+        <v>68</v>
+      </c>
+      <c r="G5" t="s">
+        <v>46</v>
+      </c>
+      <c r="H5" t="s">
+        <v>47</v>
+      </c>
+      <c r="I5" t="s">
+        <v>69</v>
+      </c>
+      <c r="J5" t="s">
+        <v>70</v>
+      </c>
+      <c r="K5" t="s">
         <v>71</v>
       </c>
-      <c r="D5" t="n">
-        <v>4</v>
-      </c>
-      <c r="E5" t="s">
-        <v>45</v>
-      </c>
-      <c r="F5" t="s">
+      <c r="L5" t="s">
         <v>72</v>
       </c>
-      <c r="G5" t="s">
-        <v>47</v>
-      </c>
-      <c r="H5" t="s">
-        <v>48</v>
-      </c>
-      <c r="I5" t="s">
+      <c r="M5" t="n">
+        <v>1</v>
+      </c>
+      <c r="N5" t="s">
         <v>73</v>
       </c>
-      <c r="J5" t="s">
-        <v>74</v>
-      </c>
-      <c r="K5" t="s">
-        <v>75</v>
-      </c>
-      <c r="L5" t="s">
-        <v>76</v>
-      </c>
-      <c r="M5" t="n">
-        <v>3</v>
-      </c>
-      <c r="N5" t="s">
-        <v>77</v>
-      </c>
       <c r="O5" t="s">
-        <v>78</v>
+        <v>67</v>
       </c>
       <c r="P5" t="s"/>
-      <c r="Q5" t="s"/>
-      <c r="R5" t="s"/>
+      <c r="Q5" t="n">
+        <v>1</v>
+      </c>
+      <c r="R5" t="n">
+        <v>4</v>
+      </c>
       <c r="S5" t="s"/>
       <c r="T5" t="s"/>
-      <c r="U5" t="s"/>
+      <c r="U5" t="n">
+        <v>3</v>
+      </c>
       <c r="V5" t="n">
         <v>0</v>
       </c>
       <c r="W5" t="s"/>
       <c r="X5" t="s"/>
       <c r="Y5" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
         <v>5209</v>
       </c>
-      <c r="B6" t="n">
-        <v>178323</v>
-      </c>
-      <c r="C6" t="s">
-        <v>79</v>
-      </c>
+      <c r="B6" t="s"/>
+      <c r="C6" t="s"/>
       <c r="D6" t="n">
         <v>5</v>
       </c>
       <c r="E6" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="G6" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H6" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I6" t="s">
-        <v>81</v>
+        <v>75</v>
       </c>
       <c r="J6" t="s">
-        <v>82</v>
+        <v>76</v>
       </c>
       <c r="K6" t="s">
-        <v>83</v>
+        <v>77</v>
       </c>
       <c r="L6" t="s">
-        <v>84</v>
+        <v>78</v>
       </c>
       <c r="M6" t="n">
         <v>1</v>
       </c>
       <c r="N6" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
       <c r="O6" t="s">
-        <v>78</v>
-      </c>
-      <c r="P6" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P6" t="s"/>
       <c r="Q6" t="s"/>
       <c r="R6" t="s"/>
       <c r="S6" t="n">
@@ -1456,7 +1611,7 @@
       </c>
       <c r="T6" t="s"/>
       <c r="U6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1464,269 +1619,239 @@
       <c r="W6" t="s"/>
       <c r="X6" t="s"/>
       <c r="Y6" t="s">
-        <v>85</v>
+        <v>80</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
         <v>5209</v>
       </c>
-      <c r="B7" t="n">
-        <v>7</v>
-      </c>
-      <c r="C7" t="s">
-        <v>86</v>
-      </c>
+      <c r="B7" t="s"/>
+      <c r="C7" t="s"/>
       <c r="D7" t="n">
         <v>6</v>
       </c>
       <c r="E7" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" t="s">
+        <v>81</v>
+      </c>
+      <c r="G7" t="s">
+        <v>46</v>
+      </c>
+      <c r="H7" t="s">
+        <v>47</v>
+      </c>
+      <c r="I7" t="s">
+        <v>82</v>
+      </c>
+      <c r="J7" t="s">
+        <v>83</v>
+      </c>
+      <c r="K7" t="s">
+        <v>84</v>
+      </c>
+      <c r="L7" t="s">
+        <v>85</v>
+      </c>
+      <c r="M7" t="n">
+        <v>1</v>
+      </c>
+      <c r="N7" t="s">
+        <v>86</v>
+      </c>
+      <c r="O7" t="s">
         <v>87</v>
       </c>
-      <c r="G7" t="s">
-        <v>47</v>
-      </c>
-      <c r="H7" t="s">
-        <v>48</v>
-      </c>
-      <c r="I7" t="s">
-        <v>88</v>
-      </c>
-      <c r="J7" t="s">
-        <v>89</v>
-      </c>
-      <c r="K7" t="s">
-        <v>90</v>
-      </c>
-      <c r="L7" t="s">
-        <v>91</v>
-      </c>
-      <c r="M7" t="n">
-        <v>5</v>
-      </c>
-      <c r="N7" t="s">
-        <v>92</v>
-      </c>
-      <c r="O7" t="s">
-        <v>78</v>
-      </c>
-      <c r="P7" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q7" t="n">
-        <v>5</v>
-      </c>
-      <c r="R7" t="n">
-        <v>5</v>
-      </c>
-      <c r="S7" t="n">
-        <v>5</v>
-      </c>
+      <c r="P7" t="s"/>
+      <c r="Q7" t="s"/>
+      <c r="R7" t="s"/>
+      <c r="S7" t="s"/>
       <c r="T7" t="s"/>
-      <c r="U7" t="n">
-        <v>5</v>
-      </c>
+      <c r="U7" t="s"/>
       <c r="V7" t="n">
         <v>0</v>
       </c>
       <c r="W7" t="s"/>
       <c r="X7" t="s"/>
       <c r="Y7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
         <v>5209</v>
       </c>
-      <c r="B8" t="n">
-        <v>178324</v>
-      </c>
-      <c r="C8" t="s">
-        <v>93</v>
-      </c>
+      <c r="B8" t="s"/>
+      <c r="C8" t="s"/>
       <c r="D8" t="n">
         <v>7</v>
       </c>
       <c r="E8" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" t="s">
+        <v>89</v>
+      </c>
+      <c r="G8" t="s">
+        <v>46</v>
+      </c>
+      <c r="H8" t="s">
+        <v>47</v>
+      </c>
+      <c r="I8" t="s">
+        <v>90</v>
+      </c>
+      <c r="J8" t="s">
+        <v>91</v>
+      </c>
+      <c r="K8" t="s">
+        <v>92</v>
+      </c>
+      <c r="L8" t="s">
+        <v>93</v>
+      </c>
+      <c r="M8" t="n">
+        <v>1</v>
+      </c>
+      <c r="N8" t="s">
         <v>94</v>
       </c>
-      <c r="G8" t="s">
-        <v>47</v>
-      </c>
-      <c r="H8" t="s">
-        <v>48</v>
-      </c>
-      <c r="I8" t="s">
+      <c r="O8" t="s">
         <v>95</v>
       </c>
-      <c r="J8" t="s">
-        <v>96</v>
-      </c>
-      <c r="K8" t="s">
-        <v>97</v>
-      </c>
-      <c r="L8" t="s">
-        <v>98</v>
-      </c>
-      <c r="M8" t="n">
-        <v>4</v>
-      </c>
-      <c r="N8" t="s">
-        <v>92</v>
-      </c>
-      <c r="O8" t="s">
-        <v>69</v>
-      </c>
-      <c r="P8" t="s"/>
+      <c r="P8" t="n">
+        <v>3</v>
+      </c>
       <c r="Q8" t="s"/>
       <c r="R8" t="s"/>
-      <c r="S8" t="s"/>
+      <c r="S8" t="n">
+        <v>1</v>
+      </c>
       <c r="T8" t="s"/>
-      <c r="U8" t="s"/>
+      <c r="U8" t="n">
+        <v>1</v>
+      </c>
       <c r="V8" t="n">
         <v>0</v>
       </c>
       <c r="W8" t="s"/>
       <c r="X8" t="s"/>
       <c r="Y8" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
         <v>5209</v>
       </c>
-      <c r="B9" t="n">
-        <v>178325</v>
-      </c>
-      <c r="C9" t="s">
-        <v>99</v>
-      </c>
+      <c r="B9" t="s"/>
+      <c r="C9" t="s"/>
       <c r="D9" t="n">
         <v>8</v>
       </c>
       <c r="E9" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" t="s">
+        <v>97</v>
+      </c>
+      <c r="G9" t="s">
+        <v>46</v>
+      </c>
+      <c r="H9" t="s">
+        <v>47</v>
+      </c>
+      <c r="I9" t="s">
+        <v>98</v>
+      </c>
+      <c r="J9" t="s">
+        <v>99</v>
+      </c>
+      <c r="K9" t="s">
         <v>100</v>
       </c>
-      <c r="G9" t="s">
-        <v>47</v>
-      </c>
-      <c r="H9" t="s">
-        <v>48</v>
-      </c>
-      <c r="I9" t="s">
+      <c r="L9" t="s">
         <v>101</v>
       </c>
-      <c r="J9" t="s">
+      <c r="M9" t="n">
+        <v>3</v>
+      </c>
+      <c r="N9" t="s">
         <v>102</v>
       </c>
-      <c r="K9" t="s">
-        <v>103</v>
-      </c>
-      <c r="L9" t="s">
-        <v>104</v>
-      </c>
-      <c r="M9" t="n">
-        <v>2</v>
-      </c>
-      <c r="N9" t="s"/>
-      <c r="O9" t="s"/>
-      <c r="P9" t="n">
-        <v>3</v>
-      </c>
-      <c r="Q9" t="n">
-        <v>2</v>
-      </c>
-      <c r="R9" t="n">
-        <v>2</v>
-      </c>
-      <c r="S9" t="n">
-        <v>4</v>
-      </c>
+      <c r="O9" t="s">
+        <v>87</v>
+      </c>
+      <c r="P9" t="s"/>
+      <c r="Q9" t="s"/>
+      <c r="R9" t="s"/>
+      <c r="S9" t="s"/>
       <c r="T9" t="s"/>
-      <c r="U9" t="n">
-        <v>2</v>
-      </c>
+      <c r="U9" t="s"/>
       <c r="V9" t="n">
         <v>0</v>
       </c>
       <c r="W9" t="s"/>
       <c r="X9" t="s"/>
       <c r="Y9" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
         <v>5209</v>
       </c>
-      <c r="B10" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C10" t="s">
-        <v>106</v>
-      </c>
+      <c r="B10" t="s"/>
+      <c r="C10" t="s"/>
       <c r="D10" t="n">
         <v>9</v>
       </c>
       <c r="E10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" t="s">
+        <v>103</v>
+      </c>
+      <c r="G10" t="s">
+        <v>46</v>
+      </c>
+      <c r="H10" t="s">
+        <v>47</v>
+      </c>
+      <c r="I10" t="s">
+        <v>104</v>
+      </c>
+      <c r="J10" t="s">
+        <v>105</v>
+      </c>
+      <c r="K10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L10" t="s">
         <v>107</v>
       </c>
-      <c r="G10" t="s">
-        <v>47</v>
-      </c>
-      <c r="H10" t="s">
-        <v>48</v>
-      </c>
-      <c r="I10" t="s">
-        <v>108</v>
-      </c>
-      <c r="J10" t="s">
-        <v>109</v>
-      </c>
-      <c r="K10" t="s">
-        <v>110</v>
-      </c>
-      <c r="L10" t="s">
-        <v>111</v>
-      </c>
       <c r="M10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="N10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="O10" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="P10" t="n">
-        <v>5</v>
-      </c>
-      <c r="Q10" t="n">
-        <v>5</v>
-      </c>
-      <c r="R10" t="n">
-        <v>5</v>
-      </c>
+        <v>3</v>
+      </c>
+      <c r="Q10" t="s"/>
+      <c r="R10" t="s"/>
       <c r="S10" t="n">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="T10" t="s"/>
       <c r="U10" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -1734,66 +1859,62 @@
       <c r="W10" t="s"/>
       <c r="X10" t="s"/>
       <c r="Y10" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
         <v>5209</v>
       </c>
-      <c r="B11" t="n">
-        <v>178326</v>
-      </c>
-      <c r="C11" t="s">
-        <v>114</v>
-      </c>
+      <c r="B11" t="s"/>
+      <c r="C11" t="s"/>
       <c r="D11" t="n">
         <v>10</v>
       </c>
       <c r="E11" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" t="s">
-        <v>115</v>
+        <v>109</v>
       </c>
       <c r="G11" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H11" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I11" t="s">
-        <v>116</v>
+        <v>110</v>
       </c>
       <c r="J11" t="s">
-        <v>117</v>
+        <v>111</v>
       </c>
       <c r="K11" t="s">
-        <v>118</v>
+        <v>112</v>
       </c>
       <c r="L11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
       <c r="M11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N11" t="s">
-        <v>120</v>
+        <v>114</v>
       </c>
       <c r="O11" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="P11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="Q11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="R11" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="S11" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="T11" t="s"/>
       <c r="U11" t="n">
@@ -1805,54 +1926,46 @@
       <c r="W11" t="s"/>
       <c r="X11" t="s"/>
       <c r="Y11" t="s">
-        <v>119</v>
+        <v>113</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
         <v>5209</v>
       </c>
-      <c r="B12" t="n">
-        <v>178327</v>
-      </c>
-      <c r="C12" t="s">
-        <v>121</v>
-      </c>
+      <c r="B12" t="s"/>
+      <c r="C12" t="s"/>
       <c r="D12" t="n">
         <v>11</v>
       </c>
       <c r="E12" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" t="s">
-        <v>122</v>
+        <v>115</v>
       </c>
       <c r="G12" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I12" t="s">
-        <v>123</v>
+        <v>116</v>
       </c>
       <c r="J12" t="s">
-        <v>124</v>
-      </c>
-      <c r="K12" t="s">
-        <v>125</v>
-      </c>
-      <c r="L12" t="s">
-        <v>126</v>
-      </c>
+        <v>117</v>
+      </c>
+      <c r="K12" t="s"/>
+      <c r="L12" t="s"/>
       <c r="M12" t="n">
         <v>5</v>
       </c>
       <c r="N12" t="s">
-        <v>127</v>
+        <v>118</v>
       </c>
       <c r="O12" t="s">
-        <v>54</v>
+        <v>87</v>
       </c>
       <c r="P12" t="n">
         <v>5</v>
@@ -1875,191 +1988,168 @@
       </c>
       <c r="W12" t="s"/>
       <c r="X12" t="s"/>
-      <c r="Y12" t="s">
-        <v>128</v>
-      </c>
+      <c r="Y12" t="s"/>
     </row>
     <row r="13">
       <c r="A13" t="n">
         <v>5209</v>
       </c>
-      <c r="B13" t="n">
-        <v>70551</v>
-      </c>
-      <c r="C13" t="s">
-        <v>106</v>
-      </c>
+      <c r="B13" t="s"/>
+      <c r="C13" t="s"/>
       <c r="D13" t="n">
         <v>12</v>
       </c>
       <c r="E13" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" t="s">
-        <v>129</v>
+        <v>119</v>
       </c>
       <c r="G13" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H13" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I13" t="s">
-        <v>130</v>
+        <v>120</v>
       </c>
       <c r="J13" t="s">
-        <v>131</v>
-      </c>
-      <c r="K13" t="s"/>
-      <c r="L13" t="s"/>
+        <v>121</v>
+      </c>
+      <c r="K13" t="s">
+        <v>122</v>
+      </c>
+      <c r="L13" t="s">
+        <v>123</v>
+      </c>
       <c r="M13" t="n">
-        <v>4</v>
-      </c>
-      <c r="N13" t="s">
-        <v>120</v>
-      </c>
-      <c r="O13" t="s">
-        <v>78</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N13" t="s"/>
+      <c r="O13" t="s"/>
       <c r="P13" t="n">
         <v>3</v>
       </c>
       <c r="Q13" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R13" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="T13" t="s"/>
       <c r="U13" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
+      </c>
+      <c r="W13" t="s"/>
+      <c r="X13" t="s"/>
+      <c r="Y13" t="s">
+        <v>123</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
         <v>5209</v>
       </c>
-      <c r="B14" t="n">
-        <v>178328</v>
-      </c>
-      <c r="C14" t="s">
-        <v>132</v>
-      </c>
+      <c r="B14" t="s"/>
+      <c r="C14" t="s"/>
       <c r="D14" t="n">
         <v>13</v>
       </c>
       <c r="E14" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" t="s">
-        <v>133</v>
+        <v>124</v>
       </c>
       <c r="G14" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H14" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I14" t="s">
-        <v>134</v>
+        <v>125</v>
       </c>
       <c r="J14" t="s">
-        <v>135</v>
+        <v>126</v>
       </c>
       <c r="K14" t="s">
-        <v>136</v>
+        <v>127</v>
       </c>
       <c r="L14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
       <c r="M14" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N14" t="s">
-        <v>138</v>
+        <v>114</v>
       </c>
       <c r="O14" t="s">
-        <v>69</v>
-      </c>
-      <c r="P14" t="n">
-        <v>4</v>
-      </c>
-      <c r="Q14" t="n">
-        <v>3</v>
-      </c>
-      <c r="R14" t="n">
-        <v>4</v>
-      </c>
-      <c r="S14" t="n">
-        <v>3</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="P14" t="s"/>
+      <c r="Q14" t="s"/>
+      <c r="R14" t="s"/>
+      <c r="S14" t="s"/>
       <c r="T14" t="s"/>
-      <c r="U14" t="n">
-        <v>4</v>
-      </c>
+      <c r="U14" t="s"/>
       <c r="V14" t="n">
         <v>0</v>
       </c>
       <c r="W14" t="s"/>
       <c r="X14" t="s"/>
       <c r="Y14" t="s">
-        <v>137</v>
+        <v>128</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
         <v>5209</v>
       </c>
-      <c r="B15" t="n">
-        <v>178329</v>
-      </c>
-      <c r="C15" t="s">
-        <v>139</v>
-      </c>
+      <c r="B15" t="s"/>
+      <c r="C15" t="s"/>
       <c r="D15" t="n">
         <v>14</v>
       </c>
       <c r="E15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" t="s">
-        <v>140</v>
+        <v>129</v>
       </c>
       <c r="G15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H15" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I15" t="s">
-        <v>141</v>
+        <v>130</v>
       </c>
       <c r="J15" t="s">
-        <v>142</v>
+        <v>131</v>
       </c>
       <c r="K15" t="s">
-        <v>143</v>
+        <v>132</v>
       </c>
       <c r="L15" t="s">
-        <v>144</v>
+        <v>133</v>
       </c>
       <c r="M15" t="n">
-        <v>1</v>
-      </c>
-      <c r="N15" t="s">
-        <v>138</v>
-      </c>
-      <c r="O15" t="s">
-        <v>78</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="N15" t="s"/>
+      <c r="O15" t="s"/>
       <c r="P15" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="Q15" t="n">
         <v>2</v>
@@ -2068,11 +2158,11 @@
         <v>2</v>
       </c>
       <c r="S15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="T15" t="s"/>
       <c r="U15" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="V15" t="n">
         <v>0</v>
@@ -2080,46 +2170,38 @@
       <c r="W15" t="s"/>
       <c r="X15" t="s"/>
       <c r="Y15" t="s">
-        <v>144</v>
+        <v>134</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
         <v>5209</v>
       </c>
-      <c r="B16" t="n">
-        <v>7</v>
-      </c>
-      <c r="C16" t="s">
-        <v>86</v>
-      </c>
+      <c r="B16" t="s"/>
+      <c r="C16" t="s"/>
       <c r="D16" t="n">
         <v>15</v>
       </c>
       <c r="E16" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F16" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="G16" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H16" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I16" t="s">
-        <v>146</v>
+        <v>136</v>
       </c>
       <c r="J16" t="s">
-        <v>147</v>
-      </c>
-      <c r="K16" t="s">
-        <v>148</v>
-      </c>
-      <c r="L16" t="s">
-        <v>149</v>
-      </c>
+        <v>137</v>
+      </c>
+      <c r="K16" t="s"/>
+      <c r="L16" t="s"/>
       <c r="M16" t="n">
         <v>5</v>
       </c>
@@ -2127,7 +2209,7 @@
         <v>138</v>
       </c>
       <c r="O16" t="s">
-        <v>150</v>
+        <v>60</v>
       </c>
       <c r="P16" t="n">
         <v>5</v>
@@ -2150,55 +2232,49 @@
       </c>
       <c r="W16" t="s"/>
       <c r="X16" t="s"/>
-      <c r="Y16" t="s">
-        <v>149</v>
-      </c>
+      <c r="Y16" t="s"/>
     </row>
     <row r="17">
       <c r="A17" t="n">
         <v>5209</v>
       </c>
-      <c r="B17" t="n">
-        <v>178330</v>
-      </c>
-      <c r="C17" t="s">
-        <v>151</v>
-      </c>
+      <c r="B17" t="s"/>
+      <c r="C17" t="s"/>
       <c r="D17" t="n">
         <v>16</v>
       </c>
       <c r="E17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" t="s">
-        <v>152</v>
+        <v>139</v>
       </c>
       <c r="G17" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H17" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I17" t="s">
-        <v>153</v>
+        <v>140</v>
       </c>
       <c r="J17" t="s">
-        <v>154</v>
+        <v>141</v>
       </c>
       <c r="K17" t="s">
-        <v>155</v>
+        <v>142</v>
       </c>
       <c r="L17" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
       <c r="M17" t="n">
         <v>5</v>
       </c>
       <c r="N17" t="s">
-        <v>157</v>
+        <v>138</v>
       </c>
       <c r="O17" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="P17" t="n">
         <v>5</v>
@@ -2222,63 +2298,59 @@
       <c r="W17" t="s"/>
       <c r="X17" t="s"/>
       <c r="Y17" t="s">
-        <v>156</v>
+        <v>143</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
         <v>5209</v>
       </c>
-      <c r="B18" t="n">
-        <v>178331</v>
-      </c>
-      <c r="C18" t="s">
-        <v>158</v>
-      </c>
+      <c r="B18" t="s"/>
+      <c r="C18" t="s"/>
       <c r="D18" t="n">
         <v>17</v>
       </c>
       <c r="E18" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" t="s">
-        <v>159</v>
+        <v>144</v>
       </c>
       <c r="G18" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H18" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I18" t="s">
-        <v>160</v>
+        <v>145</v>
       </c>
       <c r="J18" t="s">
-        <v>161</v>
+        <v>146</v>
       </c>
       <c r="K18" t="s">
-        <v>162</v>
+        <v>147</v>
       </c>
       <c r="L18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
       <c r="M18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="N18" t="s">
-        <v>164</v>
+        <v>149</v>
       </c>
       <c r="O18" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="P18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q18" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="R18" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S18" t="n">
         <v>5</v>
@@ -2293,66 +2365,66 @@
       <c r="W18" t="s"/>
       <c r="X18" t="s"/>
       <c r="Y18" t="s">
-        <v>163</v>
+        <v>148</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
         <v>5209</v>
       </c>
-      <c r="B19" t="n">
-        <v>178332</v>
-      </c>
-      <c r="C19" t="s">
-        <v>165</v>
-      </c>
+      <c r="B19" t="s"/>
+      <c r="C19" t="s"/>
       <c r="D19" t="n">
         <v>18</v>
       </c>
       <c r="E19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F19" t="s">
-        <v>166</v>
+        <v>150</v>
       </c>
       <c r="G19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H19" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I19" t="s">
-        <v>167</v>
+        <v>151</v>
       </c>
       <c r="J19" t="s">
-        <v>168</v>
+        <v>152</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>153</v>
       </c>
       <c r="L19" t="s">
-        <v>170</v>
+        <v>154</v>
       </c>
       <c r="M19" t="n">
-        <v>4</v>
-      </c>
-      <c r="N19" t="s"/>
-      <c r="O19" t="s"/>
+        <v>3</v>
+      </c>
+      <c r="N19" t="s">
+        <v>149</v>
+      </c>
+      <c r="O19" t="s">
+        <v>60</v>
+      </c>
       <c r="P19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="Q19" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="R19" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="S19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T19" t="s"/>
       <c r="U19" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="V19" t="n">
         <v>0</v>
@@ -2360,116 +2432,113 @@
       <c r="W19" t="s"/>
       <c r="X19" t="s"/>
       <c r="Y19" t="s">
-        <v>171</v>
+        <v>154</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
         <v>5209</v>
       </c>
-      <c r="B20" t="n">
-        <v>178333</v>
-      </c>
-      <c r="C20" t="s">
-        <v>172</v>
-      </c>
+      <c r="B20" t="s"/>
+      <c r="C20" t="s"/>
       <c r="D20" t="n">
         <v>19</v>
       </c>
       <c r="E20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F20" t="s">
-        <v>173</v>
+        <v>155</v>
       </c>
       <c r="G20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H20" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I20" t="s">
-        <v>174</v>
+        <v>156</v>
       </c>
       <c r="J20" t="s">
-        <v>175</v>
-      </c>
-      <c r="K20" t="s"/>
-      <c r="L20" t="s"/>
+        <v>157</v>
+      </c>
+      <c r="K20" t="s">
+        <v>158</v>
+      </c>
+      <c r="L20" t="s">
+        <v>159</v>
+      </c>
       <c r="M20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="N20" t="s">
-        <v>176</v>
+        <v>160</v>
       </c>
       <c r="O20" t="s">
-        <v>113</v>
+        <v>67</v>
       </c>
       <c r="P20" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="Q20" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="R20" t="n">
         <v>5</v>
       </c>
       <c r="S20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="T20" t="s"/>
       <c r="U20" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
+      </c>
+      <c r="W20" t="s"/>
+      <c r="X20" t="s"/>
+      <c r="Y20" t="s">
+        <v>161</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
         <v>5209</v>
       </c>
-      <c r="B21" t="n">
-        <v>178334</v>
-      </c>
-      <c r="C21" t="s">
-        <v>177</v>
-      </c>
+      <c r="B21" t="s"/>
+      <c r="C21" t="s"/>
       <c r="D21" t="n">
         <v>20</v>
       </c>
       <c r="E21" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F21" t="s">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="G21" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H21" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I21" t="s">
-        <v>179</v>
+        <v>163</v>
       </c>
       <c r="J21" t="s">
-        <v>180</v>
-      </c>
-      <c r="K21" t="s">
-        <v>181</v>
-      </c>
-      <c r="L21" t="s">
-        <v>182</v>
-      </c>
+        <v>164</v>
+      </c>
+      <c r="K21" t="s"/>
+      <c r="L21" t="s"/>
       <c r="M21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N21" t="s">
-        <v>157</v>
+        <v>149</v>
       </c>
       <c r="O21" t="s">
-        <v>78</v>
+        <v>87</v>
       </c>
       <c r="P21" t="n">
         <v>3</v>
@@ -2478,140 +2547,120 @@
         <v>3</v>
       </c>
       <c r="R21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="S21" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T21" t="s"/>
       <c r="U21" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="V21" t="n">
         <v>0</v>
       </c>
       <c r="W21" t="s"/>
       <c r="X21" t="s"/>
-      <c r="Y21" t="s">
-        <v>182</v>
-      </c>
+      <c r="Y21" t="s"/>
     </row>
     <row r="22">
       <c r="A22" t="n">
         <v>5209</v>
       </c>
-      <c r="B22" t="n">
-        <v>178335</v>
-      </c>
-      <c r="C22" t="s">
-        <v>183</v>
-      </c>
+      <c r="B22" t="s"/>
+      <c r="C22" t="s"/>
       <c r="D22" t="n">
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F22" t="s">
-        <v>184</v>
+        <v>165</v>
       </c>
       <c r="G22" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H22" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I22" t="s">
-        <v>185</v>
+        <v>166</v>
       </c>
       <c r="J22" t="s">
-        <v>186</v>
-      </c>
-      <c r="K22" t="s">
-        <v>187</v>
-      </c>
-      <c r="L22" t="s">
-        <v>188</v>
-      </c>
+        <v>167</v>
+      </c>
+      <c r="K22" t="s"/>
+      <c r="L22" t="s"/>
       <c r="M22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="N22" t="s">
-        <v>189</v>
+        <v>168</v>
       </c>
       <c r="O22" t="s">
-        <v>113</v>
+        <v>87</v>
       </c>
       <c r="P22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="Q22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="R22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="T22" t="s"/>
       <c r="U22" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="V22" t="n">
         <v>0</v>
       </c>
       <c r="W22" t="s"/>
       <c r="X22" t="s"/>
-      <c r="Y22" t="s">
-        <v>188</v>
-      </c>
+      <c r="Y22" t="s"/>
     </row>
     <row r="23">
       <c r="A23" t="n">
         <v>5209</v>
       </c>
-      <c r="B23" t="n">
-        <v>178336</v>
-      </c>
-      <c r="C23" t="s">
-        <v>190</v>
-      </c>
+      <c r="B23" t="s"/>
+      <c r="C23" t="s"/>
       <c r="D23" t="n">
         <v>22</v>
       </c>
       <c r="E23" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F23" t="s">
-        <v>191</v>
+        <v>169</v>
       </c>
       <c r="G23" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H23" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I23" t="s">
-        <v>192</v>
+        <v>170</v>
       </c>
       <c r="J23" t="s">
-        <v>193</v>
-      </c>
-      <c r="K23" t="s">
-        <v>194</v>
-      </c>
-      <c r="L23" t="s">
-        <v>195</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="K23" t="s"/>
+      <c r="L23" t="s"/>
       <c r="M23" t="n">
         <v>4</v>
       </c>
       <c r="N23" t="s">
-        <v>196</v>
+        <v>168</v>
       </c>
       <c r="O23" t="s">
-        <v>69</v>
+        <v>87</v>
       </c>
       <c r="P23" t="n">
         <v>5</v>
@@ -2634,71 +2683,65 @@
       </c>
       <c r="W23" t="s"/>
       <c r="X23" t="s"/>
-      <c r="Y23" t="s">
-        <v>195</v>
-      </c>
+      <c r="Y23" t="s"/>
     </row>
     <row r="24">
       <c r="A24" t="n">
         <v>5209</v>
       </c>
-      <c r="B24" t="n">
-        <v>79389</v>
-      </c>
-      <c r="C24" t="s">
-        <v>197</v>
-      </c>
+      <c r="B24" t="s"/>
+      <c r="C24" t="s"/>
       <c r="D24" t="n">
         <v>23</v>
       </c>
       <c r="E24" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F24" t="s">
-        <v>198</v>
+        <v>172</v>
       </c>
       <c r="G24" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H24" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I24" t="s">
-        <v>199</v>
+        <v>173</v>
       </c>
       <c r="J24" t="s">
-        <v>200</v>
+        <v>174</v>
       </c>
       <c r="K24" t="s">
-        <v>201</v>
+        <v>175</v>
       </c>
       <c r="L24" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
       <c r="M24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="N24" t="s">
-        <v>203</v>
+        <v>177</v>
       </c>
       <c r="O24" t="s">
-        <v>78</v>
+        <v>53</v>
       </c>
       <c r="P24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="Q24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="R24" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="S24" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="T24" t="s"/>
       <c r="U24" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -2706,66 +2749,66 @@
       <c r="W24" t="s"/>
       <c r="X24" t="s"/>
       <c r="Y24" t="s">
-        <v>202</v>
+        <v>176</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
         <v>5209</v>
       </c>
-      <c r="B25" t="n">
-        <v>178337</v>
-      </c>
-      <c r="C25" t="s">
-        <v>204</v>
-      </c>
+      <c r="B25" t="s"/>
+      <c r="C25" t="s"/>
       <c r="D25" t="n">
         <v>24</v>
       </c>
       <c r="E25" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F25" t="s">
-        <v>205</v>
+        <v>178</v>
       </c>
       <c r="G25" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="H25" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I25" t="s">
-        <v>206</v>
+        <v>179</v>
       </c>
       <c r="J25" t="s">
-        <v>207</v>
+        <v>180</v>
       </c>
       <c r="K25" t="s">
-        <v>208</v>
+        <v>181</v>
       </c>
       <c r="L25" t="s">
-        <v>209</v>
+        <v>182</v>
       </c>
       <c r="M25" t="n">
-        <v>3</v>
-      </c>
-      <c r="N25" t="s"/>
-      <c r="O25" t="s"/>
+        <v>1</v>
+      </c>
+      <c r="N25" t="s">
+        <v>177</v>
+      </c>
+      <c r="O25" t="s">
+        <v>87</v>
+      </c>
       <c r="P25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="Q25" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="R25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="S25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="T25" t="s"/>
       <c r="U25" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -2773,7 +2816,1047 @@
       <c r="W25" t="s"/>
       <c r="X25" t="s"/>
       <c r="Y25" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B26" t="s"/>
+      <c r="C26" t="s"/>
+      <c r="D26" t="n">
+        <v>25</v>
+      </c>
+      <c r="E26" t="s">
+        <v>44</v>
+      </c>
+      <c r="F26" t="s">
+        <v>183</v>
+      </c>
+      <c r="G26" t="s">
+        <v>46</v>
+      </c>
+      <c r="H26" t="s">
+        <v>47</v>
+      </c>
+      <c r="I26" t="s">
+        <v>184</v>
+      </c>
+      <c r="J26" t="s">
+        <v>185</v>
+      </c>
+      <c r="K26" t="s">
+        <v>186</v>
+      </c>
+      <c r="L26" t="s">
+        <v>187</v>
+      </c>
+      <c r="M26" t="n">
+        <v>5</v>
+      </c>
+      <c r="N26" t="s">
+        <v>177</v>
+      </c>
+      <c r="O26" t="s">
+        <v>95</v>
+      </c>
+      <c r="P26" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q26" t="n">
+        <v>5</v>
+      </c>
+      <c r="R26" t="n">
+        <v>5</v>
+      </c>
+      <c r="S26" t="n">
+        <v>5</v>
+      </c>
+      <c r="T26" t="s"/>
+      <c r="U26" t="n">
+        <v>5</v>
+      </c>
+      <c r="V26" t="n">
+        <v>0</v>
+      </c>
+      <c r="W26" t="s"/>
+      <c r="X26" t="s"/>
+      <c r="Y26" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B27" t="s"/>
+      <c r="C27" t="s"/>
+      <c r="D27" t="n">
+        <v>26</v>
+      </c>
+      <c r="E27" t="s">
+        <v>44</v>
+      </c>
+      <c r="F27" t="s">
+        <v>188</v>
+      </c>
+      <c r="G27" t="s">
+        <v>46</v>
+      </c>
+      <c r="H27" t="s">
+        <v>47</v>
+      </c>
+      <c r="I27" t="s">
+        <v>189</v>
+      </c>
+      <c r="J27" t="s">
+        <v>190</v>
+      </c>
+      <c r="K27" t="s"/>
+      <c r="L27" t="s"/>
+      <c r="M27" t="n">
+        <v>5</v>
+      </c>
+      <c r="N27" t="s">
+        <v>191</v>
+      </c>
+      <c r="O27" t="s">
+        <v>87</v>
+      </c>
+      <c r="P27" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q27" t="n">
+        <v>5</v>
+      </c>
+      <c r="R27" t="n">
+        <v>5</v>
+      </c>
+      <c r="S27" t="n">
+        <v>5</v>
+      </c>
+      <c r="T27" t="s"/>
+      <c r="U27" t="n">
+        <v>5</v>
+      </c>
+      <c r="V27" t="n">
+        <v>0</v>
+      </c>
+      <c r="W27" t="s"/>
+      <c r="X27" t="s"/>
+      <c r="Y27" t="s"/>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B28" t="s"/>
+      <c r="C28" t="s"/>
+      <c r="D28" t="n">
+        <v>27</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>192</v>
+      </c>
+      <c r="G28" t="s">
+        <v>46</v>
+      </c>
+      <c r="H28" t="s">
+        <v>47</v>
+      </c>
+      <c r="I28" t="s">
+        <v>193</v>
+      </c>
+      <c r="J28" t="s">
+        <v>194</v>
+      </c>
+      <c r="K28" t="s">
+        <v>195</v>
+      </c>
+      <c r="L28" t="s">
+        <v>196</v>
+      </c>
+      <c r="M28" t="n">
+        <v>4</v>
+      </c>
+      <c r="N28" t="s">
+        <v>191</v>
+      </c>
+      <c r="O28" t="s">
+        <v>67</v>
+      </c>
+      <c r="P28" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q28" t="n">
+        <v>3</v>
+      </c>
+      <c r="R28" t="n">
+        <v>4</v>
+      </c>
+      <c r="S28" t="n">
+        <v>3</v>
+      </c>
+      <c r="T28" t="s"/>
+      <c r="U28" t="n">
+        <v>5</v>
+      </c>
+      <c r="V28" t="n">
+        <v>0</v>
+      </c>
+      <c r="W28" t="s"/>
+      <c r="X28" t="s"/>
+      <c r="Y28" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B29" t="s"/>
+      <c r="C29" t="s"/>
+      <c r="D29" t="n">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>198</v>
+      </c>
+      <c r="G29" t="s">
+        <v>46</v>
+      </c>
+      <c r="H29" t="s">
+        <v>47</v>
+      </c>
+      <c r="I29" t="s">
+        <v>199</v>
+      </c>
+      <c r="J29" t="s">
+        <v>200</v>
+      </c>
+      <c r="K29" t="s">
+        <v>201</v>
+      </c>
+      <c r="L29" t="s">
+        <v>202</v>
+      </c>
+      <c r="M29" t="n">
+        <v>5</v>
+      </c>
+      <c r="N29" t="s">
+        <v>203</v>
+      </c>
+      <c r="O29" t="s">
+        <v>87</v>
+      </c>
+      <c r="P29" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q29" t="n">
+        <v>5</v>
+      </c>
+      <c r="R29" t="n">
+        <v>5</v>
+      </c>
+      <c r="S29" t="n">
+        <v>5</v>
+      </c>
+      <c r="T29" t="s"/>
+      <c r="U29" t="n">
+        <v>5</v>
+      </c>
+      <c r="V29" t="n">
+        <v>0</v>
+      </c>
+      <c r="W29" t="s"/>
+      <c r="X29" t="s"/>
+      <c r="Y29" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B30" t="s"/>
+      <c r="C30" t="s"/>
+      <c r="D30" t="n">
+        <v>29</v>
+      </c>
+      <c r="E30" t="s">
+        <v>44</v>
+      </c>
+      <c r="F30" t="s">
+        <v>204</v>
+      </c>
+      <c r="G30" t="s">
+        <v>46</v>
+      </c>
+      <c r="H30" t="s">
+        <v>47</v>
+      </c>
+      <c r="I30" t="s">
+        <v>205</v>
+      </c>
+      <c r="J30" t="s">
+        <v>206</v>
+      </c>
+      <c r="K30" t="s"/>
+      <c r="L30" t="s"/>
+      <c r="M30" t="n">
+        <v>5</v>
+      </c>
+      <c r="N30" t="s">
+        <v>207</v>
+      </c>
+      <c r="O30" t="s">
+        <v>53</v>
+      </c>
+      <c r="P30" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q30" t="n">
+        <v>5</v>
+      </c>
+      <c r="R30" t="n">
+        <v>4</v>
+      </c>
+      <c r="S30" t="n">
+        <v>5</v>
+      </c>
+      <c r="T30" t="s"/>
+      <c r="U30" t="n">
+        <v>4</v>
+      </c>
+      <c r="V30" t="n">
+        <v>0</v>
+      </c>
+      <c r="W30" t="s"/>
+      <c r="X30" t="s"/>
+      <c r="Y30" t="s"/>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B31" t="s"/>
+      <c r="C31" t="s"/>
+      <c r="D31" t="n">
+        <v>30</v>
+      </c>
+      <c r="E31" t="s">
+        <v>44</v>
+      </c>
+      <c r="F31" t="s">
+        <v>208</v>
+      </c>
+      <c r="G31" t="s">
+        <v>46</v>
+      </c>
+      <c r="H31" t="s">
+        <v>47</v>
+      </c>
+      <c r="I31" t="s">
         <v>209</v>
+      </c>
+      <c r="J31" t="s">
+        <v>210</v>
+      </c>
+      <c r="K31" t="s">
+        <v>211</v>
+      </c>
+      <c r="L31" t="s">
+        <v>212</v>
+      </c>
+      <c r="M31" t="n">
+        <v>4</v>
+      </c>
+      <c r="N31" t="s"/>
+      <c r="O31" t="s"/>
+      <c r="P31" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q31" t="n">
+        <v>4</v>
+      </c>
+      <c r="R31" t="n">
+        <v>5</v>
+      </c>
+      <c r="S31" t="n">
+        <v>4</v>
+      </c>
+      <c r="T31" t="s"/>
+      <c r="U31" t="n">
+        <v>4</v>
+      </c>
+      <c r="V31" t="n">
+        <v>0</v>
+      </c>
+      <c r="W31" t="s"/>
+      <c r="X31" t="s"/>
+      <c r="Y31" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B32" t="s"/>
+      <c r="C32" t="s"/>
+      <c r="D32" t="n">
+        <v>31</v>
+      </c>
+      <c r="E32" t="s">
+        <v>44</v>
+      </c>
+      <c r="F32" t="s">
+        <v>214</v>
+      </c>
+      <c r="G32" t="s">
+        <v>46</v>
+      </c>
+      <c r="H32" t="s">
+        <v>47</v>
+      </c>
+      <c r="I32" t="s">
+        <v>215</v>
+      </c>
+      <c r="J32" t="s">
+        <v>216</v>
+      </c>
+      <c r="K32" t="s">
+        <v>217</v>
+      </c>
+      <c r="L32" t="s">
+        <v>218</v>
+      </c>
+      <c r="M32" t="n">
+        <v>4</v>
+      </c>
+      <c r="N32" t="s">
+        <v>219</v>
+      </c>
+      <c r="O32" t="s">
+        <v>53</v>
+      </c>
+      <c r="P32" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q32" t="n">
+        <v>3</v>
+      </c>
+      <c r="R32" t="n">
+        <v>3</v>
+      </c>
+      <c r="S32" t="n">
+        <v>4</v>
+      </c>
+      <c r="T32" t="s"/>
+      <c r="U32" t="n">
+        <v>3</v>
+      </c>
+      <c r="V32" t="n">
+        <v>0</v>
+      </c>
+      <c r="W32" t="s"/>
+      <c r="X32" t="s"/>
+      <c r="Y32" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B33" t="s"/>
+      <c r="C33" t="s"/>
+      <c r="D33" t="n">
+        <v>32</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>221</v>
+      </c>
+      <c r="G33" t="s">
+        <v>46</v>
+      </c>
+      <c r="H33" t="s">
+        <v>47</v>
+      </c>
+      <c r="I33" t="s">
+        <v>222</v>
+      </c>
+      <c r="J33" t="s">
+        <v>223</v>
+      </c>
+      <c r="K33" t="s">
+        <v>224</v>
+      </c>
+      <c r="L33" t="s">
+        <v>225</v>
+      </c>
+      <c r="M33" t="n">
+        <v>1</v>
+      </c>
+      <c r="N33" t="s">
+        <v>219</v>
+      </c>
+      <c r="O33" t="s">
+        <v>87</v>
+      </c>
+      <c r="P33" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q33" t="n">
+        <v>1</v>
+      </c>
+      <c r="R33" t="n">
+        <v>1</v>
+      </c>
+      <c r="S33" t="n">
+        <v>1</v>
+      </c>
+      <c r="T33" t="s"/>
+      <c r="U33" t="n">
+        <v>1</v>
+      </c>
+      <c r="V33" t="n">
+        <v>0</v>
+      </c>
+      <c r="W33" t="s"/>
+      <c r="X33" t="s"/>
+      <c r="Y33" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B34" t="s"/>
+      <c r="C34" t="s"/>
+      <c r="D34" t="n">
+        <v>33</v>
+      </c>
+      <c r="E34" t="s">
+        <v>44</v>
+      </c>
+      <c r="F34" t="s">
+        <v>226</v>
+      </c>
+      <c r="G34" t="s">
+        <v>46</v>
+      </c>
+      <c r="H34" t="s">
+        <v>47</v>
+      </c>
+      <c r="I34" t="s">
+        <v>227</v>
+      </c>
+      <c r="J34" t="s">
+        <v>228</v>
+      </c>
+      <c r="K34" t="s"/>
+      <c r="L34" t="s"/>
+      <c r="M34" t="n">
+        <v>2</v>
+      </c>
+      <c r="N34" t="s">
+        <v>219</v>
+      </c>
+      <c r="O34" t="s">
+        <v>60</v>
+      </c>
+      <c r="P34" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q34" t="n">
+        <v>3</v>
+      </c>
+      <c r="R34" t="n">
+        <v>5</v>
+      </c>
+      <c r="S34" t="n">
+        <v>2</v>
+      </c>
+      <c r="T34" t="s"/>
+      <c r="U34" t="n">
+        <v>2</v>
+      </c>
+      <c r="V34" t="n">
+        <v>0</v>
+      </c>
+      <c r="W34" t="s"/>
+      <c r="X34" t="s"/>
+      <c r="Y34" t="s"/>
+    </row>
+    <row r="35">
+      <c r="A35" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B35" t="s"/>
+      <c r="C35" t="s"/>
+      <c r="D35" t="n">
+        <v>34</v>
+      </c>
+      <c r="E35" t="s">
+        <v>44</v>
+      </c>
+      <c r="F35" t="s">
+        <v>229</v>
+      </c>
+      <c r="G35" t="s">
+        <v>46</v>
+      </c>
+      <c r="H35" t="s">
+        <v>47</v>
+      </c>
+      <c r="I35" t="s">
+        <v>230</v>
+      </c>
+      <c r="J35" t="s">
+        <v>231</v>
+      </c>
+      <c r="K35" t="s">
+        <v>232</v>
+      </c>
+      <c r="L35" t="s">
+        <v>233</v>
+      </c>
+      <c r="M35" t="n">
+        <v>2</v>
+      </c>
+      <c r="N35" t="s">
+        <v>203</v>
+      </c>
+      <c r="O35" t="s">
+        <v>87</v>
+      </c>
+      <c r="P35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q35" t="n">
+        <v>3</v>
+      </c>
+      <c r="R35" t="n">
+        <v>4</v>
+      </c>
+      <c r="S35" t="n">
+        <v>2</v>
+      </c>
+      <c r="T35" t="s"/>
+      <c r="U35" t="n">
+        <v>2</v>
+      </c>
+      <c r="V35" t="n">
+        <v>0</v>
+      </c>
+      <c r="W35" t="s"/>
+      <c r="X35" t="s"/>
+      <c r="Y35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B36" t="s"/>
+      <c r="C36" t="s"/>
+      <c r="D36" t="n">
+        <v>35</v>
+      </c>
+      <c r="E36" t="s">
+        <v>44</v>
+      </c>
+      <c r="F36" t="s">
+        <v>234</v>
+      </c>
+      <c r="G36" t="s">
+        <v>46</v>
+      </c>
+      <c r="H36" t="s">
+        <v>47</v>
+      </c>
+      <c r="I36" t="s">
+        <v>235</v>
+      </c>
+      <c r="J36" t="s">
+        <v>236</v>
+      </c>
+      <c r="K36" t="s"/>
+      <c r="L36" t="s"/>
+      <c r="M36" t="n">
+        <v>2</v>
+      </c>
+      <c r="N36" t="s">
+        <v>237</v>
+      </c>
+      <c r="O36" t="s">
+        <v>60</v>
+      </c>
+      <c r="P36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q36" t="n">
+        <v>2</v>
+      </c>
+      <c r="R36" t="n">
+        <v>3</v>
+      </c>
+      <c r="S36" t="n">
+        <v>2</v>
+      </c>
+      <c r="T36" t="s"/>
+      <c r="U36" t="n">
+        <v>3</v>
+      </c>
+      <c r="V36" t="n">
+        <v>0</v>
+      </c>
+      <c r="W36" t="s"/>
+      <c r="X36" t="s"/>
+      <c r="Y36" t="s"/>
+    </row>
+    <row r="37">
+      <c r="A37" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B37" t="s"/>
+      <c r="C37" t="s"/>
+      <c r="D37" t="n">
+        <v>36</v>
+      </c>
+      <c r="E37" t="s">
+        <v>44</v>
+      </c>
+      <c r="F37" t="s">
+        <v>238</v>
+      </c>
+      <c r="G37" t="s">
+        <v>46</v>
+      </c>
+      <c r="H37" t="s">
+        <v>47</v>
+      </c>
+      <c r="I37" t="s">
+        <v>239</v>
+      </c>
+      <c r="J37" t="s">
+        <v>240</v>
+      </c>
+      <c r="K37" t="s">
+        <v>241</v>
+      </c>
+      <c r="L37" t="s">
+        <v>242</v>
+      </c>
+      <c r="M37" t="n">
+        <v>3</v>
+      </c>
+      <c r="N37" t="s">
+        <v>243</v>
+      </c>
+      <c r="O37" t="s">
+        <v>53</v>
+      </c>
+      <c r="P37" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q37" t="n">
+        <v>2</v>
+      </c>
+      <c r="R37" t="n">
+        <v>3</v>
+      </c>
+      <c r="S37" t="n">
+        <v>5</v>
+      </c>
+      <c r="T37" t="s"/>
+      <c r="U37" t="n">
+        <v>5</v>
+      </c>
+      <c r="V37" t="n">
+        <v>0</v>
+      </c>
+      <c r="W37" t="s"/>
+      <c r="X37" t="s"/>
+      <c r="Y37" t="s">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B38" t="s"/>
+      <c r="C38" t="s"/>
+      <c r="D38" t="n">
+        <v>37</v>
+      </c>
+      <c r="E38" t="s">
+        <v>44</v>
+      </c>
+      <c r="F38" t="s">
+        <v>244</v>
+      </c>
+      <c r="G38" t="s">
+        <v>46</v>
+      </c>
+      <c r="H38" t="s">
+        <v>47</v>
+      </c>
+      <c r="I38" t="s">
+        <v>245</v>
+      </c>
+      <c r="J38" t="s">
+        <v>246</v>
+      </c>
+      <c r="K38" t="s">
+        <v>247</v>
+      </c>
+      <c r="L38" t="s">
+        <v>248</v>
+      </c>
+      <c r="M38" t="n">
+        <v>4</v>
+      </c>
+      <c r="N38" t="s">
+        <v>249</v>
+      </c>
+      <c r="O38" t="s">
+        <v>53</v>
+      </c>
+      <c r="P38" t="n">
+        <v>4</v>
+      </c>
+      <c r="Q38" t="n">
+        <v>4</v>
+      </c>
+      <c r="R38" t="n">
+        <v>5</v>
+      </c>
+      <c r="S38" t="n">
+        <v>5</v>
+      </c>
+      <c r="T38" t="s"/>
+      <c r="U38" t="n">
+        <v>4</v>
+      </c>
+      <c r="V38" t="n">
+        <v>0</v>
+      </c>
+      <c r="W38" t="s"/>
+      <c r="X38" t="s"/>
+      <c r="Y38" t="s">
+        <v>248</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B39" t="s"/>
+      <c r="C39" t="s"/>
+      <c r="D39" t="n">
+        <v>38</v>
+      </c>
+      <c r="E39" t="s">
+        <v>44</v>
+      </c>
+      <c r="F39" t="s">
+        <v>250</v>
+      </c>
+      <c r="G39" t="s">
+        <v>46</v>
+      </c>
+      <c r="H39" t="s">
+        <v>47</v>
+      </c>
+      <c r="I39" t="s">
+        <v>251</v>
+      </c>
+      <c r="J39" t="s">
+        <v>252</v>
+      </c>
+      <c r="K39" t="s">
+        <v>253</v>
+      </c>
+      <c r="L39" t="s">
+        <v>254</v>
+      </c>
+      <c r="M39" t="n">
+        <v>4</v>
+      </c>
+      <c r="N39" t="s">
+        <v>255</v>
+      </c>
+      <c r="O39" t="s">
+        <v>53</v>
+      </c>
+      <c r="P39" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q39" t="n">
+        <v>5</v>
+      </c>
+      <c r="R39" t="n">
+        <v>5</v>
+      </c>
+      <c r="S39" t="n">
+        <v>5</v>
+      </c>
+      <c r="T39" t="s"/>
+      <c r="U39" t="n">
+        <v>5</v>
+      </c>
+      <c r="V39" t="n">
+        <v>0</v>
+      </c>
+      <c r="W39" t="s"/>
+      <c r="X39" t="s"/>
+      <c r="Y39" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B40" t="s"/>
+      <c r="C40" t="s"/>
+      <c r="D40" t="n">
+        <v>39</v>
+      </c>
+      <c r="E40" t="s">
+        <v>44</v>
+      </c>
+      <c r="F40" t="s">
+        <v>256</v>
+      </c>
+      <c r="G40" t="s">
+        <v>46</v>
+      </c>
+      <c r="H40" t="s">
+        <v>47</v>
+      </c>
+      <c r="I40" t="s">
+        <v>257</v>
+      </c>
+      <c r="J40" t="s">
+        <v>258</v>
+      </c>
+      <c r="K40" t="s">
+        <v>259</v>
+      </c>
+      <c r="L40" t="s">
+        <v>260</v>
+      </c>
+      <c r="M40" t="n">
+        <v>4</v>
+      </c>
+      <c r="N40" t="s">
+        <v>261</v>
+      </c>
+      <c r="O40" t="s">
+        <v>87</v>
+      </c>
+      <c r="P40" t="n">
+        <v>5</v>
+      </c>
+      <c r="Q40" t="n">
+        <v>4</v>
+      </c>
+      <c r="R40" t="n">
+        <v>3</v>
+      </c>
+      <c r="S40" t="n">
+        <v>4</v>
+      </c>
+      <c r="T40" t="s"/>
+      <c r="U40" t="n">
+        <v>5</v>
+      </c>
+      <c r="V40" t="n">
+        <v>0</v>
+      </c>
+      <c r="W40" t="s"/>
+      <c r="X40" t="s"/>
+      <c r="Y40" t="s">
+        <v>260</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="n">
+        <v>5209</v>
+      </c>
+      <c r="B41" t="s"/>
+      <c r="C41" t="s"/>
+      <c r="D41" t="n">
+        <v>40</v>
+      </c>
+      <c r="E41" t="s">
+        <v>44</v>
+      </c>
+      <c r="F41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" t="s">
+        <v>46</v>
+      </c>
+      <c r="H41" t="s">
+        <v>47</v>
+      </c>
+      <c r="I41" t="s">
+        <v>263</v>
+      </c>
+      <c r="J41" t="s">
+        <v>264</v>
+      </c>
+      <c r="K41" t="s">
+        <v>265</v>
+      </c>
+      <c r="L41" t="s">
+        <v>266</v>
+      </c>
+      <c r="M41" t="n">
+        <v>3</v>
+      </c>
+      <c r="N41" t="s"/>
+      <c r="O41" t="s"/>
+      <c r="P41" t="n">
+        <v>3</v>
+      </c>
+      <c r="Q41" t="n">
+        <v>3</v>
+      </c>
+      <c r="R41" t="n">
+        <v>4</v>
+      </c>
+      <c r="S41" t="n">
+        <v>3</v>
+      </c>
+      <c r="T41" t="s"/>
+      <c r="U41" t="n">
+        <v>3</v>
+      </c>
+      <c r="V41" t="n">
+        <v>0</v>
+      </c>
+      <c r="W41" t="s"/>
+      <c r="X41" t="s"/>
+      <c r="Y41" t="s">
+        <v>266</v>
       </c>
     </row>
   </sheetData>
